--- a/excel-file/asm-temp.xlsx
+++ b/excel-file/asm-temp.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68472198-4BC4-4042-8350-A4611A8821E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{68472198-4BC4-4042-8350-A4611A8821E2}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView xWindow="648" yWindow="1416" windowWidth="19452" windowHeight="9072" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="2" windowHeight="9072" windowWidth="19452" xWindow="648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="1416"/>
   </bookViews>
   <sheets>
-    <sheet name="Nhóm" sheetId="2" r:id="rId1"/>
-    <sheet name="Dự án" sheetId="3" r:id="rId2"/>
-    <sheet name="ASM1" sheetId="1" r:id="rId3"/>
+    <sheet name="Nhóm" r:id="rId1" sheetId="2"/>
+    <sheet name="Dự án" r:id="rId2" sheetId="3"/>
+    <sheet name="ASM1" r:id="rId3" sheetId="1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2101" uniqueCount="870">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3267" uniqueCount="870">
   <si>
     <t>Trường hợp kiểm thử</t>
   </si>
@@ -2943,6 +2943,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3060,49 +3061,49 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="14">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" quotePrefix="1" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="8" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -3119,10 +3120,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -3157,7 +3158,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -3192,7 +3193,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -3286,21 +3287,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -3317,7 +3318,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -3369,15 +3370,15 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
@@ -3385,7 +3386,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="6" width="25.44140625" customWidth="1"/>
+    <col min="1" max="6" customWidth="true" width="25.44140625" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -3498,7 +3499,7 @@
       </c>
       <c r="F7" s="8"/>
     </row>
-    <row r="8" spans="1:6" ht="27" x14ac:dyDescent="0.3">
+    <row ht="27" r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <v>2</v>
       </c>
@@ -3517,13 +3518,13 @@
       <c r="F8" s="8"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B2:B18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="B2:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G18" sqref="G18"/>
@@ -3531,120 +3532,120 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="67.109375" customWidth="1"/>
+    <col min="2" max="2" customWidth="true" width="67.109375" collapsed="false"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" ht="187.2" x14ac:dyDescent="0.3">
+    <row ht="187.2" r="2" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B2" s="11" t="s">
         <v>695</v>
       </c>
     </row>
-    <row r="4" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row ht="17.399999999999999" r="4" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B4" s="12" t="s">
         <v>696</v>
       </c>
     </row>
-    <row r="5" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row ht="17.399999999999999" r="5" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B5" s="12" t="s">
         <v>697</v>
       </c>
     </row>
-    <row r="6" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row ht="15.6" r="6" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B6" s="13" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="7" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row ht="15.6" r="7" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B7" s="13" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="8" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row ht="15.6" r="8" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B8" s="13" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="9" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row ht="15.6" r="9" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B9" s="13" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="10" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row ht="15.6" r="10" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B10" s="13" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="11" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row ht="15.6" r="11" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B11" s="13" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="12" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row ht="15.6" r="12" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B12" s="13" t="s">
         <v>704</v>
       </c>
     </row>
-    <row r="13" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row ht="15.6" r="13" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B13" s="13" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="14" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row ht="17.399999999999999" r="14" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B14" s="12" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="15" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row ht="15.6" r="15" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B15" s="13" t="s">
         <v>707</v>
       </c>
     </row>
-    <row r="16" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row ht="15.6" r="16" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B16" s="13" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="17" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row ht="15.6" r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17" s="13" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="18" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row ht="15.6" r="18" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B18" s="13" t="s">
         <v>710</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:L325"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:M336"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
       <selection activeCell="K180" sqref="K180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="2" max="4" width="16.109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="47.5546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="32.88671875" style="1" customWidth="1"/>
-    <col min="7" max="10" width="10" style="1" customWidth="1"/>
-    <col min="11" max="11" width="13.33203125" style="1" customWidth="1"/>
-    <col min="12" max="13" width="16.109375" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" style="1" width="8.88671875" collapsed="false"/>
+    <col min="2" max="4" customWidth="true" style="1" width="16.109375" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" style="1" width="47.5546875" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" style="1" width="32.88671875" collapsed="false"/>
+    <col min="7" max="10" customWidth="true" style="1" width="10.0" collapsed="false"/>
+    <col min="11" max="11" customWidth="true" style="1" width="13.33203125" collapsed="false"/>
+    <col min="12" max="13" customWidth="true" style="1" width="16.109375" collapsed="false"/>
+    <col min="14" max="16384" style="1" width="8.88671875" collapsed="false"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row ht="26.4" r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row ht="26.4" r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>672</v>
       </c>
@@ -3682,7 +3683,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row ht="26.4" r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -3702,7 +3703,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row ht="26.4" r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -3722,7 +3723,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row ht="26.4" r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -3742,7 +3743,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row ht="26.4" r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -3762,7 +3763,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row ht="26.4" r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -3782,7 +3783,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row ht="26.4" r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -3802,7 +3803,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row ht="26.4" r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -3822,7 +3823,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row ht="26.4" r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -3842,7 +3843,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row ht="26.4" r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -3862,7 +3863,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row ht="26.4" r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -3882,7 +3883,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row ht="26.4" r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -3902,7 +3903,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row ht="26.4" r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -3922,7 +3923,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row ht="26.4" r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -3945,7 +3946,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row ht="26.4" r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -3968,7 +3969,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row ht="26.4" r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -3991,7 +3992,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row ht="26.4" r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -4014,7 +4015,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row ht="26.4" r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -4037,7 +4038,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row ht="26.4" r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -4060,7 +4061,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row ht="26.4" r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -4083,7 +4084,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row ht="26.4" r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -4106,7 +4107,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row ht="26.4" r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -4129,7 +4130,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row ht="26.4" r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -4152,7 +4153,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row ht="26.4" r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -4175,7 +4176,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row ht="26.4" r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -4198,7 +4199,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row ht="26.4" r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -4221,7 +4222,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row ht="26.4" r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -4244,7 +4245,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row ht="26.4" r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -4267,7 +4268,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row ht="26.4" r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -4290,7 +4291,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row ht="26.4" r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -4313,7 +4314,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row ht="26.4" r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -4336,7 +4337,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row ht="26.4" r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -4359,7 +4360,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row ht="26.4" r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -4382,7 +4383,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row ht="26.4" r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -4405,7 +4406,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row ht="26.4" r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -4428,7 +4429,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row ht="26.4" r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -4451,7 +4452,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row ht="26.4" r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -4474,7 +4475,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row ht="26.4" r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -4497,7 +4498,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row ht="26.4" r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -4520,7 +4521,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row ht="26.4" r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -4543,7 +4544,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row ht="26.4" r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -4566,7 +4567,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row ht="26.4" r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -4589,7 +4590,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row ht="26.4" r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -4612,7 +4613,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row ht="26.4" r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -4635,7 +4636,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row ht="26.4" r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -4658,7 +4659,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="47" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row ht="26.4" r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -4681,7 +4682,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row ht="26.4" r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -4704,7 +4705,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row ht="26.4" r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -4727,7 +4728,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row ht="26.4" r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -4750,7 +4751,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row ht="26.4" r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -4773,7 +4774,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="52" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row ht="26.4" r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -4796,7 +4797,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row ht="26.4" r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -4819,7 +4820,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="54" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row ht="26.4" r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -4842,7 +4843,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="55" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row ht="26.4" r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -4865,7 +4866,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="56" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row ht="26.4" r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -4888,7 +4889,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="57" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row ht="26.4" r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -4911,7 +4912,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="58" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row ht="26.4" r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -4934,7 +4935,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="59" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row ht="26.4" r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -4957,7 +4958,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="60" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row ht="26.4" r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -4980,7 +4981,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row ht="26.4" r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -5003,7 +5004,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="62" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row ht="26.4" r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -5026,7 +5027,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="63" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row ht="26.4" r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -5049,7 +5050,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="64" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row ht="26.4" r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -5072,7 +5073,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="65" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row ht="26.4" r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -5095,7 +5096,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="66" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row ht="26.4" r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -5118,7 +5119,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="67" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row ht="26.4" r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -5141,7 +5142,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="68" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row ht="26.4" r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -5164,7 +5165,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="69" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row ht="26.4" r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -5187,7 +5188,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="70" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row ht="26.4" r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -5210,7 +5211,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="71" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row ht="26.4" r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -5233,7 +5234,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="72" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row ht="26.4" r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -5256,7 +5257,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="73" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row ht="26.4" r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -5279,7 +5280,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="74" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row ht="26.4" r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -5302,7 +5303,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="75" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row ht="26.4" r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -5325,7 +5326,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="76" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row ht="26.4" r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -5348,7 +5349,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="77" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row ht="26.4" r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -5371,7 +5372,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="78" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row ht="26.4" r="78" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -5394,7 +5395,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="79" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row ht="26.4" r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -5417,7 +5418,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="80" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row ht="26.4" r="80" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -5440,7 +5441,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="81" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row ht="26.4" r="81" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -5463,7 +5464,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="82" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row ht="26.4" r="82" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -5486,7 +5487,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="83" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row ht="26.4" r="83" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -5509,7 +5510,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="84" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row ht="26.4" r="84" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -5532,7 +5533,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="85" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row ht="26.4" r="85" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -5555,7 +5556,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="86" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row ht="26.4" r="86" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -5578,7 +5579,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="87" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row ht="26.4" r="87" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -5601,7 +5602,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="88" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row ht="26.4" r="88" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -5624,7 +5625,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="89" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row ht="26.4" r="89" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -5647,7 +5648,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="90" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row ht="26.4" r="90" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -5670,7 +5671,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="91" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row ht="26.4" r="91" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -5693,7 +5694,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="92" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row ht="26.4" r="92" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -5716,7 +5717,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="93" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row ht="26.4" r="93" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -5739,7 +5740,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="94" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row ht="26.4" r="94" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -5762,7 +5763,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="95" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row ht="26.4" r="95" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -5785,7 +5786,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="96" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row ht="26.4" r="96" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -5808,7 +5809,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="97" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row ht="26.4" r="97" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -5831,7 +5832,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="98" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row ht="26.4" r="98" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -5854,7 +5855,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="99" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row ht="26.4" r="99" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -5877,7 +5878,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="100" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row ht="26.4" r="100" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -5900,7 +5901,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="101" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row ht="26.4" r="101" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -5923,7 +5924,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="102" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row ht="26.4" r="102" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -5946,7 +5947,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="103" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row ht="26.4" r="103" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -5969,7 +5970,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="104" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row ht="26.4" r="104" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -5992,7 +5993,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="105" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row ht="26.4" r="105" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -6015,7 +6016,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="106" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row ht="26.4" r="106" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -6038,7 +6039,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="107" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row ht="26.4" r="107" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -6061,7 +6062,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="108" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row ht="26.4" r="108" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -6084,7 +6085,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="109" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row ht="26.4" r="109" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -6107,7 +6108,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="110" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row ht="26.4" r="110" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -6130,7 +6131,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="111" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row ht="26.4" r="111" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -6153,7 +6154,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="112" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row ht="26.4" r="112" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -6176,7 +6177,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="113" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row ht="26.4" r="113" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -6199,7 +6200,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="114" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row ht="26.4" r="114" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -6222,7 +6223,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="115" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row ht="26.4" r="115" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -6245,7 +6246,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="116" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row ht="26.4" r="116" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -6268,7 +6269,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="117" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row ht="26.4" r="117" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -6291,7 +6292,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="118" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row ht="26.4" r="118" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -6314,7 +6315,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="119" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row ht="26.4" r="119" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -6337,7 +6338,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="120" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row ht="26.4" r="120" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -6360,7 +6361,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="121" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row ht="26.4" r="121" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -6383,7 +6384,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="122" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row ht="26.4" r="122" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -6406,7 +6407,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="123" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row ht="26.4" r="123" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -6429,7 +6430,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="124" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row ht="26.4" r="124" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -6452,7 +6453,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="125" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row ht="26.4" r="125" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -6475,7 +6476,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="126" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row ht="26.4" r="126" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -6498,7 +6499,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="127" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row ht="26.4" r="127" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -6521,7 +6522,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="128" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row ht="26.4" r="128" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -6544,7 +6545,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="129" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row ht="26.4" r="129" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -6567,7 +6568,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="130" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row ht="26.4" r="130" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -6590,7 +6591,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="131" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row ht="26.4" r="131" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -6613,7 +6614,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="132" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row ht="26.4" r="132" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -6636,7 +6637,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="133" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row ht="26.4" r="133" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -6659,7 +6660,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="134" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row ht="26.4" r="134" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -6682,7 +6683,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="135" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row ht="26.4" r="135" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -6705,7 +6706,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="136" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row ht="26.4" r="136" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -6728,7 +6729,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="137" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row ht="26.4" r="137" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -6751,7 +6752,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="138" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row ht="26.4" r="138" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -6774,7 +6775,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="139" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row ht="26.4" r="139" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -6797,7 +6798,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="140" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row ht="26.4" r="140" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -6820,7 +6821,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="141" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row ht="26.4" r="141" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -6843,7 +6844,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="142" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row ht="26.4" r="142" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -6866,7 +6867,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="143" spans="1:12" ht="39.6" x14ac:dyDescent="0.3">
+    <row ht="39.6" r="143" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -6889,7 +6890,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="144" spans="1:12" ht="39.6" x14ac:dyDescent="0.3">
+    <row ht="39.6" r="144" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -6912,7 +6913,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="145" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row ht="26.4" r="145" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -6935,7 +6936,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="146" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row ht="26.4" r="146" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -6958,7 +6959,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="147" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row ht="26.4" r="147" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -6981,7 +6982,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="148" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row ht="26.4" r="148" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -7004,7 +7005,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="149" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row ht="26.4" r="149" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -7027,7 +7028,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="150" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row ht="26.4" r="150" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -7050,7 +7051,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="151" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row ht="26.4" r="151" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -7073,7 +7074,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="152" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row ht="26.4" r="152" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -7096,7 +7097,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="153" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row ht="26.4" r="153" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -7119,7 +7120,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="154" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row ht="26.4" r="154" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -7142,7 +7143,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="155" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row ht="26.4" r="155" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -7165,7 +7166,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="156" spans="1:12" ht="26.4" x14ac:dyDescent="0.3">
+    <row ht="26.4" r="156" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -7188,7 +7189,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="157" spans="1:12" ht="39.6" x14ac:dyDescent="0.3">
+    <row ht="39.6" r="157" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -7211,7 +7212,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="158" spans="1:12" ht="39.6" x14ac:dyDescent="0.3">
+    <row ht="39.6" r="158" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>156</v>
       </c>
@@ -7234,7 +7235,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="159" spans="1:12" ht="39.6" x14ac:dyDescent="0.3">
+    <row ht="39.6" r="159" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -7257,7 +7258,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="160" spans="1:12" ht="39.6" x14ac:dyDescent="0.3">
+    <row ht="39.6" r="160" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -7280,7 +7281,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="161" spans="1:12" ht="39.6" x14ac:dyDescent="0.3">
+    <row ht="39.6" r="161" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -7303,7 +7304,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="162" spans="1:12" ht="39.6" x14ac:dyDescent="0.3">
+    <row ht="39.6" r="162" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -7323,7 +7324,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="163" spans="1:12" ht="39.6" x14ac:dyDescent="0.3">
+    <row ht="39.6" r="163" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>161</v>
       </c>
@@ -7346,7 +7347,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="164" spans="1:12" ht="39.6" x14ac:dyDescent="0.3">
+    <row ht="39.6" r="164" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>162</v>
       </c>
@@ -7369,7 +7370,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="165" spans="1:12" ht="39.6" x14ac:dyDescent="0.3">
+    <row ht="39.6" r="165" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -7392,7 +7393,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="166" spans="1:12" ht="39.6" x14ac:dyDescent="0.3">
+    <row ht="39.6" r="166" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -7415,7 +7416,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="167" spans="1:12" ht="39.6" x14ac:dyDescent="0.3">
+    <row ht="39.6" r="167" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>165</v>
       </c>
@@ -7438,7 +7439,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="168" spans="1:12" ht="39.6" x14ac:dyDescent="0.3">
+    <row ht="39.6" r="168" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -7461,7 +7462,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="169" spans="1:12" ht="39.6" x14ac:dyDescent="0.3">
+    <row ht="39.6" r="169" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>167</v>
       </c>
@@ -7484,7 +7485,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="170" spans="1:12" ht="66" x14ac:dyDescent="0.3">
+    <row r="170">
       <c r="A170" t="s">
         <v>724</v>
       </c>
@@ -7506,17 +7507,17 @@
       <c r="G170" t="s">
         <v>725</v>
       </c>
-      <c r="I170" s="1" t="s">
+      <c r="H170" t="s">
         <v>869</v>
       </c>
-      <c r="J170" s="1" t="s">
+      <c r="I170" t="s">
         <v>869</v>
       </c>
-      <c r="L170" s="1" t="s">
+      <c r="J170" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="171" spans="1:12" ht="66" x14ac:dyDescent="0.3">
+    <row r="171">
       <c r="A171" t="s">
         <v>724</v>
       </c>
@@ -7538,17 +7539,17 @@
       <c r="G171" t="s">
         <v>726</v>
       </c>
-      <c r="I171" s="1" t="s">
+      <c r="H171" t="s">
         <v>869</v>
       </c>
-      <c r="J171" s="1" t="s">
+      <c r="I171" t="s">
         <v>869</v>
       </c>
-      <c r="L171" s="1" t="s">
+      <c r="J171" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="172" spans="1:12" ht="66" x14ac:dyDescent="0.3">
+    <row r="172">
       <c r="A172" t="s">
         <v>724</v>
       </c>
@@ -7570,17 +7571,17 @@
       <c r="G172" t="s">
         <v>727</v>
       </c>
-      <c r="I172" s="1" t="s">
+      <c r="H172" t="s">
         <v>869</v>
       </c>
-      <c r="J172" s="1" t="s">
+      <c r="I172" t="s">
         <v>869</v>
       </c>
-      <c r="L172" s="1" t="s">
+      <c r="J172" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="173" spans="1:12" ht="66" x14ac:dyDescent="0.3">
+    <row r="173">
       <c r="A173" t="s">
         <v>724</v>
       </c>
@@ -7602,17 +7603,17 @@
       <c r="G173" t="s">
         <v>728</v>
       </c>
-      <c r="I173" s="1" t="s">
+      <c r="H173" t="s">
         <v>869</v>
       </c>
-      <c r="J173" s="1" t="s">
+      <c r="I173" t="s">
         <v>869</v>
       </c>
-      <c r="L173" s="1" t="s">
+      <c r="J173" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="174" spans="1:12" ht="66" x14ac:dyDescent="0.3">
+    <row r="174">
       <c r="A174" t="s">
         <v>724</v>
       </c>
@@ -7634,17 +7635,17 @@
       <c r="G174" t="s">
         <v>729</v>
       </c>
-      <c r="I174" s="1" t="s">
+      <c r="H174" t="s">
         <v>869</v>
       </c>
-      <c r="J174" s="1" t="s">
+      <c r="I174" t="s">
         <v>869</v>
       </c>
-      <c r="L174" s="1" t="s">
+      <c r="J174" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="175" spans="1:12" ht="66" x14ac:dyDescent="0.3">
+    <row r="175">
       <c r="A175" t="s">
         <v>724</v>
       </c>
@@ -7666,17 +7667,17 @@
       <c r="G175" t="s">
         <v>730</v>
       </c>
-      <c r="I175" s="1" t="s">
+      <c r="H175" t="s">
         <v>869</v>
       </c>
-      <c r="J175" s="1" t="s">
+      <c r="I175" t="s">
         <v>869</v>
       </c>
-      <c r="L175" s="1" t="s">
+      <c r="J175" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="176" spans="1:12" ht="66" x14ac:dyDescent="0.3">
+    <row r="176">
       <c r="A176" t="s">
         <v>724</v>
       </c>
@@ -7698,17 +7699,17 @@
       <c r="G176" t="s">
         <v>731</v>
       </c>
-      <c r="I176" s="1" t="s">
+      <c r="H176" t="s">
         <v>869</v>
       </c>
-      <c r="J176" s="1" t="s">
+      <c r="I176" t="s">
         <v>869</v>
       </c>
-      <c r="L176" s="1" t="s">
+      <c r="J176" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="177" spans="1:12" ht="66" x14ac:dyDescent="0.3">
+    <row r="177">
       <c r="A177" t="s">
         <v>724</v>
       </c>
@@ -7730,17 +7731,17 @@
       <c r="G177" t="s">
         <v>732</v>
       </c>
-      <c r="I177" s="1" t="s">
+      <c r="H177" t="s">
         <v>869</v>
       </c>
-      <c r="J177" s="1" t="s">
+      <c r="I177" t="s">
         <v>869</v>
       </c>
-      <c r="L177" s="1" t="s">
+      <c r="J177" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="178" spans="1:12" ht="66" x14ac:dyDescent="0.3">
+    <row r="178">
       <c r="A178" t="s">
         <v>724</v>
       </c>
@@ -7762,17 +7763,17 @@
       <c r="G178" t="s">
         <v>733</v>
       </c>
-      <c r="I178" s="1" t="s">
+      <c r="H178" t="s">
         <v>869</v>
       </c>
-      <c r="J178" s="1" t="s">
+      <c r="I178" t="s">
         <v>869</v>
       </c>
-      <c r="L178" s="1" t="s">
+      <c r="J178" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="179" spans="1:12" ht="66" x14ac:dyDescent="0.3">
+    <row r="179">
       <c r="A179" t="s">
         <v>724</v>
       </c>
@@ -7794,17 +7795,17 @@
       <c r="G179" t="s">
         <v>734</v>
       </c>
-      <c r="I179" s="1" t="s">
+      <c r="H179" t="s">
         <v>869</v>
       </c>
-      <c r="J179" s="1" t="s">
+      <c r="I179" t="s">
         <v>869</v>
       </c>
-      <c r="L179" s="1" t="s">
+      <c r="J179" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="180" spans="1:12" ht="66" x14ac:dyDescent="0.3">
+    <row r="180">
       <c r="A180" t="s">
         <v>724</v>
       </c>
@@ -7826,17 +7827,17 @@
       <c r="G180" t="s">
         <v>735</v>
       </c>
-      <c r="I180" s="1" t="s">
+      <c r="H180" t="s">
         <v>869</v>
       </c>
-      <c r="J180" s="1" t="s">
+      <c r="I180" t="s">
         <v>869</v>
       </c>
-      <c r="L180" s="1" t="s">
+      <c r="J180" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="181" spans="1:12" ht="66" x14ac:dyDescent="0.3">
+    <row r="181">
       <c r="A181" t="s">
         <v>724</v>
       </c>
@@ -7858,790 +7859,889 @@
       <c r="G181" t="s">
         <v>736</v>
       </c>
-      <c r="I181" s="1" t="s">
+      <c r="H181" t="s">
         <v>869</v>
       </c>
-      <c r="J181" s="1" t="s">
+      <c r="I181" t="s">
         <v>869</v>
       </c>
-      <c r="L181" s="1" t="s">
+      <c r="J181" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="182" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="182">
       <c r="A182" t="s">
-        <v>737</v>
+        <v>724</v>
       </c>
       <c r="B182" t="s">
         <v>12</v>
       </c>
       <c r="C182" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="D182" t="s">
         <v>374</v>
       </c>
       <c r="E182" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F182" t="s">
         <v>57</v>
       </c>
+      <c r="G182" t="s">
+        <v>726</v>
+      </c>
+      <c r="I182" t="s">
+        <v>869</v>
+      </c>
+      <c r="J182" t="s">
+        <v>869</v>
+      </c>
       <c r="L182" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="183" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="183">
       <c r="A183" t="s">
-        <v>738</v>
+        <v>724</v>
       </c>
       <c r="B183" t="s">
         <v>12</v>
       </c>
       <c r="C183" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="D183" t="s">
         <v>374</v>
       </c>
       <c r="E183" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="F183" t="s">
         <v>57</v>
       </c>
+      <c r="G183" t="s">
+        <v>727</v>
+      </c>
+      <c r="I183" t="s">
+        <v>869</v>
+      </c>
+      <c r="J183" t="s">
+        <v>869</v>
+      </c>
       <c r="L183" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="184" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="184">
       <c r="A184" t="s">
-        <v>739</v>
+        <v>724</v>
       </c>
       <c r="B184" t="s">
         <v>12</v>
       </c>
       <c r="C184" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="D184" t="s">
         <v>374</v>
       </c>
       <c r="E184" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="F184" t="s">
         <v>57</v>
       </c>
+      <c r="G184" t="s">
+        <v>728</v>
+      </c>
+      <c r="I184" t="s">
+        <v>869</v>
+      </c>
+      <c r="J184" t="s">
+        <v>869</v>
+      </c>
       <c r="L184" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="185" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="185">
       <c r="A185" t="s">
-        <v>740</v>
+        <v>724</v>
       </c>
       <c r="B185" t="s">
         <v>12</v>
       </c>
       <c r="C185" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="D185" t="s">
         <v>374</v>
       </c>
       <c r="E185" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="F185" t="s">
         <v>57</v>
       </c>
+      <c r="G185" t="s">
+        <v>729</v>
+      </c>
+      <c r="I185" t="s">
+        <v>869</v>
+      </c>
+      <c r="J185" t="s">
+        <v>869</v>
+      </c>
       <c r="L185" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="186" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="186">
       <c r="A186" t="s">
-        <v>741</v>
+        <v>724</v>
       </c>
       <c r="B186" t="s">
         <v>12</v>
       </c>
       <c r="C186" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="D186" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="E186" t="s">
-        <v>386</v>
+        <v>375</v>
       </c>
       <c r="F186" t="s">
         <v>57</v>
       </c>
+      <c r="G186" t="s">
+        <v>730</v>
+      </c>
+      <c r="I186" t="s">
+        <v>869</v>
+      </c>
+      <c r="J186" t="s">
+        <v>869</v>
+      </c>
       <c r="L186" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="187" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="187">
       <c r="A187" t="s">
-        <v>742</v>
+        <v>724</v>
       </c>
       <c r="B187" t="s">
         <v>12</v>
       </c>
       <c r="C187" t="s">
-        <v>387</v>
+        <v>373</v>
       </c>
       <c r="D187" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="E187" t="s">
-        <v>388</v>
+        <v>375</v>
       </c>
       <c r="F187" t="s">
         <v>57</v>
       </c>
+      <c r="G187" t="s">
+        <v>731</v>
+      </c>
+      <c r="I187" t="s">
+        <v>869</v>
+      </c>
+      <c r="J187" t="s">
+        <v>869</v>
+      </c>
       <c r="L187" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="188" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="188">
       <c r="A188" t="s">
-        <v>743</v>
+        <v>724</v>
       </c>
       <c r="B188" t="s">
         <v>12</v>
       </c>
       <c r="C188" t="s">
-        <v>389</v>
+        <v>373</v>
       </c>
       <c r="D188" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="E188" t="s">
-        <v>390</v>
+        <v>375</v>
       </c>
       <c r="F188" t="s">
         <v>57</v>
       </c>
+      <c r="G188" t="s">
+        <v>732</v>
+      </c>
+      <c r="I188" t="s">
+        <v>869</v>
+      </c>
+      <c r="J188" t="s">
+        <v>869</v>
+      </c>
       <c r="L188" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="189" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="189">
       <c r="A189" t="s">
-        <v>744</v>
+        <v>724</v>
       </c>
       <c r="B189" t="s">
         <v>12</v>
       </c>
       <c r="C189" t="s">
-        <v>391</v>
+        <v>373</v>
       </c>
       <c r="D189" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="E189" t="s">
-        <v>392</v>
+        <v>375</v>
       </c>
       <c r="F189" t="s">
         <v>57</v>
       </c>
+      <c r="G189" t="s">
+        <v>733</v>
+      </c>
+      <c r="I189" t="s">
+        <v>869</v>
+      </c>
+      <c r="J189" t="s">
+        <v>869</v>
+      </c>
       <c r="L189" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="190" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="190">
       <c r="A190" t="s">
-        <v>745</v>
+        <v>724</v>
       </c>
       <c r="B190" t="s">
         <v>12</v>
       </c>
       <c r="C190" t="s">
-        <v>393</v>
+        <v>373</v>
       </c>
       <c r="D190" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="E190" t="s">
-        <v>394</v>
+        <v>375</v>
       </c>
       <c r="F190" t="s">
         <v>57</v>
       </c>
+      <c r="G190" t="s">
+        <v>734</v>
+      </c>
+      <c r="I190" t="s">
+        <v>869</v>
+      </c>
+      <c r="J190" t="s">
+        <v>869</v>
+      </c>
       <c r="L190" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="191" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="191">
       <c r="A191" t="s">
-        <v>746</v>
+        <v>724</v>
       </c>
       <c r="B191" t="s">
         <v>12</v>
       </c>
       <c r="C191" t="s">
-        <v>395</v>
+        <v>373</v>
       </c>
       <c r="D191" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="E191" t="s">
-        <v>396</v>
+        <v>375</v>
       </c>
       <c r="F191" t="s">
         <v>57</v>
+      </c>
+      <c r="G191" t="s">
+        <v>735</v>
+      </c>
+      <c r="I191" t="s">
+        <v>869</v>
+      </c>
+      <c r="J191" t="s">
+        <v>869</v>
       </c>
       <c r="L191" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="192" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="192">
       <c r="A192" t="s">
-        <v>747</v>
+        <v>724</v>
       </c>
       <c r="B192" t="s">
         <v>12</v>
       </c>
       <c r="C192" t="s">
-        <v>397</v>
+        <v>373</v>
       </c>
       <c r="D192" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="E192" t="s">
-        <v>398</v>
+        <v>375</v>
       </c>
       <c r="F192" t="s">
         <v>57</v>
+      </c>
+      <c r="G192" t="s">
+        <v>736</v>
+      </c>
+      <c r="I192" t="s">
+        <v>869</v>
+      </c>
+      <c r="J192" t="s">
+        <v>869</v>
       </c>
       <c r="L192" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="193" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="193">
       <c r="A193" t="s">
+        <v>737</v>
+      </c>
+      <c r="B193" t="s">
+        <v>12</v>
+      </c>
+      <c r="C193" t="s">
+        <v>376</v>
+      </c>
+      <c r="D193" t="s">
+        <v>374</v>
+      </c>
+      <c r="E193" t="s">
+        <v>377</v>
+      </c>
+      <c r="F193" t="s">
+        <v>57</v>
+      </c>
+      <c r="L193" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="s">
+        <v>738</v>
+      </c>
+      <c r="B194" t="s">
+        <v>12</v>
+      </c>
+      <c r="C194" t="s">
+        <v>378</v>
+      </c>
+      <c r="D194" t="s">
+        <v>374</v>
+      </c>
+      <c r="E194" t="s">
+        <v>379</v>
+      </c>
+      <c r="F194" t="s">
+        <v>57</v>
+      </c>
+      <c r="L194" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="s">
+        <v>739</v>
+      </c>
+      <c r="B195" t="s">
+        <v>12</v>
+      </c>
+      <c r="C195" t="s">
+        <v>380</v>
+      </c>
+      <c r="D195" t="s">
+        <v>374</v>
+      </c>
+      <c r="E195" t="s">
+        <v>381</v>
+      </c>
+      <c r="F195" t="s">
+        <v>57</v>
+      </c>
+      <c r="L195" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="s">
+        <v>740</v>
+      </c>
+      <c r="B196" t="s">
+        <v>12</v>
+      </c>
+      <c r="C196" t="s">
+        <v>382</v>
+      </c>
+      <c r="D196" t="s">
+        <v>374</v>
+      </c>
+      <c r="E196" t="s">
+        <v>383</v>
+      </c>
+      <c r="F196" t="s">
+        <v>57</v>
+      </c>
+      <c r="L196" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="s">
+        <v>741</v>
+      </c>
+      <c r="B197" t="s">
+        <v>12</v>
+      </c>
+      <c r="C197" t="s">
+        <v>384</v>
+      </c>
+      <c r="D197" t="s">
+        <v>385</v>
+      </c>
+      <c r="E197" t="s">
+        <v>386</v>
+      </c>
+      <c r="F197" t="s">
+        <v>57</v>
+      </c>
+      <c r="L197" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="s">
+        <v>742</v>
+      </c>
+      <c r="B198" t="s">
+        <v>12</v>
+      </c>
+      <c r="C198" t="s">
+        <v>387</v>
+      </c>
+      <c r="D198" t="s">
+        <v>385</v>
+      </c>
+      <c r="E198" t="s">
+        <v>388</v>
+      </c>
+      <c r="F198" t="s">
+        <v>57</v>
+      </c>
+      <c r="L198" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="s">
+        <v>743</v>
+      </c>
+      <c r="B199" t="s">
+        <v>12</v>
+      </c>
+      <c r="C199" t="s">
+        <v>389</v>
+      </c>
+      <c r="D199" t="s">
+        <v>385</v>
+      </c>
+      <c r="E199" t="s">
+        <v>390</v>
+      </c>
+      <c r="F199" t="s">
+        <v>57</v>
+      </c>
+      <c r="L199" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="s">
+        <v>744</v>
+      </c>
+      <c r="B200" t="s">
+        <v>12</v>
+      </c>
+      <c r="C200" t="s">
+        <v>391</v>
+      </c>
+      <c r="D200" t="s">
+        <v>385</v>
+      </c>
+      <c r="E200" t="s">
+        <v>392</v>
+      </c>
+      <c r="F200" t="s">
+        <v>57</v>
+      </c>
+      <c r="L200" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="s">
+        <v>745</v>
+      </c>
+      <c r="B201" t="s">
+        <v>12</v>
+      </c>
+      <c r="C201" t="s">
+        <v>393</v>
+      </c>
+      <c r="D201" t="s">
+        <v>385</v>
+      </c>
+      <c r="E201" t="s">
+        <v>394</v>
+      </c>
+      <c r="F201" t="s">
+        <v>57</v>
+      </c>
+      <c r="L201" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="s">
+        <v>746</v>
+      </c>
+      <c r="B202" t="s">
+        <v>12</v>
+      </c>
+      <c r="C202" t="s">
+        <v>395</v>
+      </c>
+      <c r="D202" t="s">
+        <v>385</v>
+      </c>
+      <c r="E202" t="s">
+        <v>396</v>
+      </c>
+      <c r="F202" t="s">
+        <v>57</v>
+      </c>
+      <c r="L202" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="s">
+        <v>747</v>
+      </c>
+      <c r="B203" t="s">
+        <v>12</v>
+      </c>
+      <c r="C203" t="s">
+        <v>397</v>
+      </c>
+      <c r="D203" t="s">
+        <v>385</v>
+      </c>
+      <c r="E203" t="s">
+        <v>398</v>
+      </c>
+      <c r="F203" t="s">
+        <v>57</v>
+      </c>
+      <c r="L203" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="s">
         <v>748</v>
       </c>
-      <c r="B193" t="s">
-        <v>12</v>
-      </c>
-      <c r="C193" t="s">
+      <c r="B204" t="s">
+        <v>12</v>
+      </c>
+      <c r="C204" t="s">
         <v>399</v>
       </c>
-      <c r="D193" t="s">
+      <c r="D204" t="s">
         <v>400</v>
       </c>
-      <c r="E193" t="s">
+      <c r="E204" t="s">
         <v>401</v>
       </c>
-      <c r="F193" t="s">
-        <v>57</v>
-      </c>
-      <c r="L193" t="s">
+      <c r="F204" t="s">
+        <v>57</v>
+      </c>
+      <c r="L204" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="194" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A194" t="s">
+    <row r="205">
+      <c r="A205" t="s">
         <v>749</v>
       </c>
-      <c r="B194" t="s">
-        <v>12</v>
-      </c>
-      <c r="C194" t="s">
+      <c r="B205" t="s">
+        <v>12</v>
+      </c>
+      <c r="C205" t="s">
         <v>402</v>
       </c>
-      <c r="D194" t="s">
+      <c r="D205" t="s">
         <v>400</v>
       </c>
-      <c r="E194" t="s">
+      <c r="E205" t="s">
         <v>403</v>
       </c>
-      <c r="F194" t="s">
-        <v>57</v>
-      </c>
-      <c r="L194" t="s">
+      <c r="F205" t="s">
+        <v>57</v>
+      </c>
+      <c r="L205" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="195" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A195" t="s">
+    <row r="206">
+      <c r="A206" t="s">
         <v>750</v>
       </c>
-      <c r="B195" t="s">
-        <v>12</v>
-      </c>
-      <c r="C195" t="s">
+      <c r="B206" t="s">
+        <v>12</v>
+      </c>
+      <c r="C206" t="s">
         <v>404</v>
       </c>
-      <c r="D195" t="s">
+      <c r="D206" t="s">
         <v>400</v>
       </c>
-      <c r="E195" t="s">
+      <c r="E206" t="s">
         <v>405</v>
       </c>
-      <c r="F195" t="s">
-        <v>57</v>
-      </c>
-      <c r="L195" t="s">
+      <c r="F206" t="s">
+        <v>57</v>
+      </c>
+      <c r="L206" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="196" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A196" t="s">
+    <row r="207">
+      <c r="A207" t="s">
         <v>751</v>
       </c>
-      <c r="B196" t="s">
-        <v>12</v>
-      </c>
-      <c r="C196" t="s">
+      <c r="B207" t="s">
+        <v>12</v>
+      </c>
+      <c r="C207" t="s">
         <v>406</v>
       </c>
-      <c r="D196" t="s">
+      <c r="D207" t="s">
         <v>400</v>
       </c>
-      <c r="E196" t="s">
+      <c r="E207" t="s">
         <v>407</v>
       </c>
-      <c r="F196" t="s">
-        <v>57</v>
-      </c>
-      <c r="L196" t="s">
+      <c r="F207" t="s">
+        <v>57</v>
+      </c>
+      <c r="L207" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="197" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A197" t="s">
+    <row r="208">
+      <c r="A208" t="s">
         <v>752</v>
       </c>
-      <c r="B197" t="s">
-        <v>12</v>
-      </c>
-      <c r="C197" t="s">
+      <c r="B208" t="s">
+        <v>12</v>
+      </c>
+      <c r="C208" t="s">
         <v>408</v>
       </c>
-      <c r="D197" t="s">
+      <c r="D208" t="s">
         <v>400</v>
       </c>
-      <c r="E197" t="s">
+      <c r="E208" t="s">
         <v>409</v>
       </c>
-      <c r="F197" t="s">
-        <v>57</v>
-      </c>
-      <c r="L197" t="s">
+      <c r="F208" t="s">
+        <v>57</v>
+      </c>
+      <c r="L208" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="198" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A198" t="s">
+    <row r="209">
+      <c r="A209" t="s">
         <v>753</v>
       </c>
-      <c r="B198" t="s">
-        <v>12</v>
-      </c>
-      <c r="C198" t="s">
+      <c r="B209" t="s">
+        <v>12</v>
+      </c>
+      <c r="C209" t="s">
         <v>410</v>
       </c>
-      <c r="D198" t="s">
+      <c r="D209" t="s">
         <v>411</v>
       </c>
-      <c r="E198" t="s">
+      <c r="E209" t="s">
         <v>412</v>
       </c>
-      <c r="F198" t="s">
-        <v>57</v>
-      </c>
-      <c r="L198" t="s">
+      <c r="F209" t="s">
+        <v>57</v>
+      </c>
+      <c r="L209" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="199" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A199" t="s">
+    <row r="210">
+      <c r="A210" t="s">
         <v>754</v>
       </c>
-      <c r="B199" t="s">
-        <v>12</v>
-      </c>
-      <c r="C199" t="s">
+      <c r="B210" t="s">
+        <v>12</v>
+      </c>
+      <c r="C210" t="s">
         <v>413</v>
       </c>
-      <c r="D199" t="s">
+      <c r="D210" t="s">
         <v>411</v>
       </c>
-      <c r="E199" t="s">
+      <c r="E210" t="s">
         <v>414</v>
       </c>
-      <c r="F199" t="s">
-        <v>57</v>
-      </c>
-      <c r="L199" t="s">
+      <c r="F210" t="s">
+        <v>57</v>
+      </c>
+      <c r="L210" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="200" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A200" t="s">
+    <row r="211">
+      <c r="A211" t="s">
         <v>755</v>
       </c>
-      <c r="B200" t="s">
-        <v>12</v>
-      </c>
-      <c r="C200" t="s">
+      <c r="B211" t="s">
+        <v>12</v>
+      </c>
+      <c r="C211" t="s">
         <v>415</v>
       </c>
-      <c r="D200" t="s">
+      <c r="D211" t="s">
         <v>411</v>
       </c>
-      <c r="E200" t="s">
+      <c r="E211" t="s">
         <v>416</v>
       </c>
-      <c r="F200" t="s">
-        <v>57</v>
-      </c>
-      <c r="L200" t="s">
+      <c r="F211" t="s">
+        <v>57</v>
+      </c>
+      <c r="L211" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="201" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A201" t="s">
+    <row r="212">
+      <c r="A212" t="s">
         <v>756</v>
       </c>
-      <c r="B201" t="s">
-        <v>12</v>
-      </c>
-      <c r="C201" t="s">
+      <c r="B212" t="s">
+        <v>12</v>
+      </c>
+      <c r="C212" t="s">
         <v>417</v>
       </c>
-      <c r="D201" t="s">
+      <c r="D212" t="s">
         <v>418</v>
       </c>
-      <c r="E201" t="s">
+      <c r="E212" t="s">
         <v>419</v>
       </c>
-      <c r="F201" t="s">
-        <v>57</v>
-      </c>
-      <c r="L201" t="s">
+      <c r="F212" t="s">
+        <v>57</v>
+      </c>
+      <c r="L212" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="202" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A202" t="s">
+    <row r="213">
+      <c r="A213" t="s">
         <v>757</v>
       </c>
-      <c r="B202" t="s">
-        <v>12</v>
-      </c>
-      <c r="C202" t="s">
+      <c r="B213" t="s">
+        <v>12</v>
+      </c>
+      <c r="C213" t="s">
         <v>420</v>
       </c>
-      <c r="D202" t="s">
+      <c r="D213" t="s">
         <v>418</v>
       </c>
-      <c r="E202" t="s">
+      <c r="E213" t="s">
         <v>421</v>
       </c>
-      <c r="F202" t="s">
-        <v>57</v>
-      </c>
-      <c r="L202" t="s">
+      <c r="F213" t="s">
+        <v>57</v>
+      </c>
+      <c r="L213" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="203" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A203" t="s">
+    <row r="214">
+      <c r="A214" t="s">
         <v>758</v>
       </c>
-      <c r="B203" t="s">
-        <v>12</v>
-      </c>
-      <c r="C203" t="s">
+      <c r="B214" t="s">
+        <v>12</v>
+      </c>
+      <c r="C214" t="s">
         <v>422</v>
       </c>
-      <c r="D203" t="s">
+      <c r="D214" t="s">
         <v>423</v>
       </c>
-      <c r="E203" t="s">
+      <c r="E214" t="s">
         <v>424</v>
       </c>
-      <c r="F203" t="s">
-        <v>57</v>
-      </c>
-      <c r="L203" t="s">
+      <c r="F214" t="s">
+        <v>57</v>
+      </c>
+      <c r="L214" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="204" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A204" t="s">
+    <row r="215">
+      <c r="A215" t="s">
         <v>759</v>
       </c>
-      <c r="B204" t="s">
-        <v>12</v>
-      </c>
-      <c r="C204" t="s">
+      <c r="B215" t="s">
+        <v>12</v>
+      </c>
+      <c r="C215" t="s">
         <v>425</v>
       </c>
-      <c r="D204" t="s">
+      <c r="D215" t="s">
         <v>423</v>
       </c>
-      <c r="E204" t="s">
+      <c r="E215" t="s">
         <v>426</v>
-      </c>
-      <c r="F204" t="s">
-        <v>57</v>
-      </c>
-      <c r="L204" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="205" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A205" t="s">
-        <v>760</v>
-      </c>
-      <c r="B205" t="s">
-        <v>12</v>
-      </c>
-      <c r="C205" t="s">
-        <v>427</v>
-      </c>
-      <c r="D205" t="s">
-        <v>423</v>
-      </c>
-      <c r="E205" t="s">
-        <v>428</v>
-      </c>
-      <c r="F205" t="s">
-        <v>57</v>
-      </c>
-      <c r="L205" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="206" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A206" t="s">
-        <v>761</v>
-      </c>
-      <c r="B206" t="s">
-        <v>12</v>
-      </c>
-      <c r="C206" t="s">
-        <v>429</v>
-      </c>
-      <c r="D206" t="s">
-        <v>423</v>
-      </c>
-      <c r="E206" t="s">
-        <v>430</v>
-      </c>
-      <c r="F206" t="s">
-        <v>57</v>
-      </c>
-      <c r="L206" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="207" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A207" t="s">
-        <v>762</v>
-      </c>
-      <c r="B207" t="s">
-        <v>12</v>
-      </c>
-      <c r="C207" t="s">
-        <v>431</v>
-      </c>
-      <c r="D207" t="s">
-        <v>423</v>
-      </c>
-      <c r="E207" t="s">
-        <v>432</v>
-      </c>
-      <c r="F207" t="s">
-        <v>57</v>
-      </c>
-      <c r="L207" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="208" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A208" t="s">
-        <v>763</v>
-      </c>
-      <c r="B208" t="s">
-        <v>12</v>
-      </c>
-      <c r="C208" t="s">
-        <v>433</v>
-      </c>
-      <c r="D208" t="s">
-        <v>434</v>
-      </c>
-      <c r="E208" t="s">
-        <v>435</v>
-      </c>
-      <c r="F208" t="s">
-        <v>57</v>
-      </c>
-      <c r="L208" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="209" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A209" t="s">
-        <v>764</v>
-      </c>
-      <c r="B209" t="s">
-        <v>12</v>
-      </c>
-      <c r="C209" t="s">
-        <v>436</v>
-      </c>
-      <c r="D209" t="s">
-        <v>437</v>
-      </c>
-      <c r="E209" t="s">
-        <v>438</v>
-      </c>
-      <c r="F209" t="s">
-        <v>57</v>
-      </c>
-      <c r="L209" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="210" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A210" t="s">
-        <v>765</v>
-      </c>
-      <c r="B210" t="s">
-        <v>12</v>
-      </c>
-      <c r="C210" t="s">
-        <v>439</v>
-      </c>
-      <c r="D210" t="s">
-        <v>437</v>
-      </c>
-      <c r="E210" t="s">
-        <v>440</v>
-      </c>
-      <c r="F210" t="s">
-        <v>57</v>
-      </c>
-      <c r="L210" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="211" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A211" t="s">
-        <v>766</v>
-      </c>
-      <c r="B211" t="s">
-        <v>12</v>
-      </c>
-      <c r="C211" t="s">
-        <v>441</v>
-      </c>
-      <c r="D211" t="s">
-        <v>437</v>
-      </c>
-      <c r="E211" t="s">
-        <v>442</v>
-      </c>
-      <c r="F211" t="s">
-        <v>57</v>
-      </c>
-      <c r="L211" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="212" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A212" t="s">
-        <v>767</v>
-      </c>
-      <c r="B212" t="s">
-        <v>12</v>
-      </c>
-      <c r="C212" t="s">
-        <v>443</v>
-      </c>
-      <c r="D212" t="s">
-        <v>444</v>
-      </c>
-      <c r="E212" t="s">
-        <v>445</v>
-      </c>
-      <c r="F212" t="s">
-        <v>57</v>
-      </c>
-      <c r="L212" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="213" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A213" t="s">
-        <v>768</v>
-      </c>
-      <c r="B213" t="s">
-        <v>12</v>
-      </c>
-      <c r="C213" t="s">
-        <v>446</v>
-      </c>
-      <c r="D213" t="s">
-        <v>444</v>
-      </c>
-      <c r="E213" t="s">
-        <v>447</v>
-      </c>
-      <c r="F213" t="s">
-        <v>57</v>
-      </c>
-      <c r="L213" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="214" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A214" t="s">
-        <v>769</v>
-      </c>
-      <c r="B214" t="s">
-        <v>12</v>
-      </c>
-      <c r="C214" t="s">
-        <v>448</v>
-      </c>
-      <c r="D214" t="s">
-        <v>444</v>
-      </c>
-      <c r="E214" t="s">
-        <v>449</v>
-      </c>
-      <c r="F214" t="s">
-        <v>57</v>
-      </c>
-      <c r="L214" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="215" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A215" t="s">
-        <v>770</v>
-      </c>
-      <c r="B215" t="s">
-        <v>13</v>
-      </c>
-      <c r="C215" t="s">
-        <v>450</v>
-      </c>
-      <c r="D215" t="s">
-        <v>451</v>
-      </c>
-      <c r="E215" t="s">
-        <v>452</v>
       </c>
       <c r="F215" t="s">
         <v>57</v>
@@ -8650,113 +8750,113 @@
         <v>45</v>
       </c>
     </row>
-    <row r="216" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="216">
       <c r="A216" t="s">
-        <v>771</v>
+        <v>760</v>
       </c>
       <c r="B216" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C216" t="s">
-        <v>453</v>
+        <v>427</v>
       </c>
       <c r="D216" t="s">
-        <v>451</v>
+        <v>423</v>
       </c>
       <c r="E216" t="s">
-        <v>454</v>
+        <v>428</v>
       </c>
       <c r="F216" t="s">
         <v>57</v>
       </c>
       <c r="L216" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="217" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="217">
       <c r="A217" t="s">
-        <v>772</v>
+        <v>761</v>
       </c>
       <c r="B217" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C217" t="s">
-        <v>455</v>
+        <v>429</v>
       </c>
       <c r="D217" t="s">
-        <v>451</v>
+        <v>423</v>
       </c>
       <c r="E217" t="s">
-        <v>456</v>
+        <v>430</v>
       </c>
       <c r="F217" t="s">
         <v>57</v>
       </c>
       <c r="L217" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="218" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="218">
       <c r="A218" t="s">
-        <v>773</v>
+        <v>762</v>
       </c>
       <c r="B218" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C218" t="s">
-        <v>457</v>
+        <v>431</v>
       </c>
       <c r="D218" t="s">
-        <v>451</v>
+        <v>423</v>
       </c>
       <c r="E218" t="s">
-        <v>458</v>
+        <v>432</v>
       </c>
       <c r="F218" t="s">
         <v>57</v>
       </c>
       <c r="L218" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="219" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="219">
       <c r="A219" t="s">
-        <v>774</v>
+        <v>763</v>
       </c>
       <c r="B219" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C219" t="s">
-        <v>459</v>
+        <v>433</v>
       </c>
       <c r="D219" t="s">
-        <v>451</v>
+        <v>434</v>
       </c>
       <c r="E219" t="s">
-        <v>460</v>
+        <v>435</v>
       </c>
       <c r="F219" t="s">
         <v>57</v>
       </c>
       <c r="L219" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="220" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="220">
       <c r="A220" t="s">
-        <v>775</v>
+        <v>764</v>
       </c>
       <c r="B220" t="s">
         <v>12</v>
       </c>
       <c r="C220" t="s">
-        <v>461</v>
+        <v>436</v>
       </c>
       <c r="D220" t="s">
-        <v>462</v>
+        <v>437</v>
       </c>
       <c r="E220" t="s">
-        <v>463</v>
+        <v>438</v>
       </c>
       <c r="F220" t="s">
         <v>57</v>
@@ -8765,90 +8865,90 @@
         <v>85</v>
       </c>
     </row>
-    <row r="221" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="221">
       <c r="A221" t="s">
-        <v>776</v>
+        <v>765</v>
       </c>
       <c r="B221" t="s">
         <v>12</v>
       </c>
       <c r="C221" t="s">
-        <v>464</v>
+        <v>439</v>
       </c>
       <c r="D221" t="s">
-        <v>462</v>
+        <v>437</v>
       </c>
       <c r="E221" t="s">
-        <v>465</v>
+        <v>440</v>
       </c>
       <c r="F221" t="s">
         <v>57</v>
       </c>
       <c r="L221" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="s">
+        <v>766</v>
+      </c>
+      <c r="B222" t="s">
+        <v>12</v>
+      </c>
+      <c r="C222" t="s">
+        <v>441</v>
+      </c>
+      <c r="D222" t="s">
+        <v>437</v>
+      </c>
+      <c r="E222" t="s">
+        <v>442</v>
+      </c>
+      <c r="F222" t="s">
+        <v>57</v>
+      </c>
+      <c r="L222" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="s">
+        <v>767</v>
+      </c>
+      <c r="B223" t="s">
+        <v>12</v>
+      </c>
+      <c r="C223" t="s">
+        <v>443</v>
+      </c>
+      <c r="D223" t="s">
+        <v>444</v>
+      </c>
+      <c r="E223" t="s">
+        <v>445</v>
+      </c>
+      <c r="F223" t="s">
+        <v>57</v>
+      </c>
+      <c r="L223" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="222" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A222" t="s">
-        <v>777</v>
-      </c>
-      <c r="B222" t="s">
-        <v>13</v>
-      </c>
-      <c r="C222" t="s">
-        <v>466</v>
-      </c>
-      <c r="D222" t="s">
-        <v>467</v>
-      </c>
-      <c r="E222" t="s">
-        <v>468</v>
-      </c>
-      <c r="F222" t="s">
-        <v>57</v>
-      </c>
-      <c r="L222" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="223" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A223" t="s">
-        <v>778</v>
-      </c>
-      <c r="B223" t="s">
-        <v>13</v>
-      </c>
-      <c r="C223" t="s">
-        <v>469</v>
-      </c>
-      <c r="D223" t="s">
-        <v>467</v>
-      </c>
-      <c r="E223" t="s">
-        <v>470</v>
-      </c>
-      <c r="F223" t="s">
-        <v>57</v>
-      </c>
-      <c r="L223" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="224" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="224">
       <c r="A224" t="s">
-        <v>779</v>
+        <v>768</v>
       </c>
       <c r="B224" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C224" t="s">
-        <v>471</v>
+        <v>446</v>
       </c>
       <c r="D224" t="s">
-        <v>467</v>
+        <v>444</v>
       </c>
       <c r="E224" t="s">
-        <v>472</v>
+        <v>447</v>
       </c>
       <c r="F224" t="s">
         <v>57</v>
@@ -8857,90 +8957,90 @@
         <v>85</v>
       </c>
     </row>
-    <row r="225" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="225">
       <c r="A225" t="s">
-        <v>780</v>
+        <v>769</v>
       </c>
       <c r="B225" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C225" t="s">
-        <v>473</v>
+        <v>448</v>
       </c>
       <c r="D225" t="s">
-        <v>474</v>
+        <v>444</v>
       </c>
       <c r="E225" t="s">
-        <v>475</v>
+        <v>449</v>
       </c>
       <c r="F225" t="s">
         <v>57</v>
       </c>
       <c r="L225" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="226" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="226">
       <c r="A226" t="s">
-        <v>781</v>
+        <v>770</v>
       </c>
       <c r="B226" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C226" t="s">
-        <v>476</v>
+        <v>450</v>
       </c>
       <c r="D226" t="s">
-        <v>477</v>
+        <v>451</v>
       </c>
       <c r="E226" t="s">
-        <v>478</v>
+        <v>452</v>
       </c>
       <c r="F226" t="s">
         <v>57</v>
       </c>
       <c r="L226" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="227" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="227">
       <c r="A227" t="s">
-        <v>782</v>
+        <v>771</v>
       </c>
       <c r="B227" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C227" t="s">
-        <v>479</v>
+        <v>453</v>
       </c>
       <c r="D227" t="s">
-        <v>477</v>
+        <v>451</v>
       </c>
       <c r="E227" t="s">
-        <v>480</v>
+        <v>454</v>
       </c>
       <c r="F227" t="s">
         <v>57</v>
       </c>
       <c r="L227" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="228" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="228">
       <c r="A228" t="s">
-        <v>783</v>
+        <v>772</v>
       </c>
       <c r="B228" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C228" t="s">
-        <v>481</v>
+        <v>455</v>
       </c>
       <c r="D228" t="s">
-        <v>477</v>
+        <v>451</v>
       </c>
       <c r="E228" t="s">
-        <v>482</v>
+        <v>456</v>
       </c>
       <c r="F228" t="s">
         <v>57</v>
@@ -8949,67 +9049,67 @@
         <v>29</v>
       </c>
     </row>
-    <row r="229" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="229">
       <c r="A229" t="s">
-        <v>784</v>
+        <v>773</v>
       </c>
       <c r="B229" t="s">
         <v>13</v>
       </c>
       <c r="C229" t="s">
-        <v>483</v>
+        <v>457</v>
       </c>
       <c r="D229" t="s">
-        <v>484</v>
+        <v>451</v>
       </c>
       <c r="E229" t="s">
-        <v>485</v>
+        <v>458</v>
       </c>
       <c r="F229" t="s">
         <v>57</v>
       </c>
       <c r="L229" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="230" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="230">
       <c r="A230" t="s">
-        <v>785</v>
+        <v>774</v>
       </c>
       <c r="B230" t="s">
         <v>13</v>
       </c>
       <c r="C230" t="s">
-        <v>486</v>
+        <v>459</v>
       </c>
       <c r="D230" t="s">
-        <v>484</v>
+        <v>451</v>
       </c>
       <c r="E230" t="s">
-        <v>487</v>
+        <v>460</v>
       </c>
       <c r="F230" t="s">
         <v>57</v>
       </c>
       <c r="L230" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="231" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="231">
       <c r="A231" t="s">
-        <v>786</v>
+        <v>775</v>
       </c>
       <c r="B231" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C231" t="s">
-        <v>488</v>
+        <v>461</v>
       </c>
       <c r="D231" t="s">
-        <v>484</v>
+        <v>462</v>
       </c>
       <c r="E231" t="s">
-        <v>489</v>
+        <v>463</v>
       </c>
       <c r="F231" t="s">
         <v>57</v>
@@ -9018,21 +9118,21 @@
         <v>85</v>
       </c>
     </row>
-    <row r="232" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="232">
       <c r="A232" t="s">
-        <v>787</v>
+        <v>776</v>
       </c>
       <c r="B232" t="s">
         <v>12</v>
       </c>
       <c r="C232" t="s">
-        <v>490</v>
+        <v>464</v>
       </c>
       <c r="D232" t="s">
-        <v>491</v>
+        <v>462</v>
       </c>
       <c r="E232" t="s">
-        <v>492</v>
+        <v>465</v>
       </c>
       <c r="F232" t="s">
         <v>57</v>
@@ -9041,136 +9141,136 @@
         <v>58</v>
       </c>
     </row>
-    <row r="233" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="233">
       <c r="A233" t="s">
-        <v>788</v>
+        <v>777</v>
       </c>
       <c r="B233" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C233" t="s">
-        <v>493</v>
+        <v>466</v>
       </c>
       <c r="D233" t="s">
-        <v>491</v>
+        <v>467</v>
       </c>
       <c r="E233" t="s">
-        <v>494</v>
+        <v>468</v>
       </c>
       <c r="F233" t="s">
         <v>57</v>
       </c>
       <c r="L233" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="234" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="234">
       <c r="A234" t="s">
-        <v>789</v>
+        <v>778</v>
       </c>
       <c r="B234" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C234" t="s">
-        <v>495</v>
+        <v>469</v>
       </c>
       <c r="D234" t="s">
-        <v>491</v>
+        <v>467</v>
       </c>
       <c r="E234" t="s">
-        <v>496</v>
+        <v>470</v>
       </c>
       <c r="F234" t="s">
         <v>57</v>
       </c>
       <c r="L234" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="235" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="235">
       <c r="A235" t="s">
-        <v>790</v>
+        <v>779</v>
       </c>
       <c r="B235" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C235" t="s">
-        <v>497</v>
+        <v>471</v>
       </c>
       <c r="D235" t="s">
-        <v>498</v>
+        <v>467</v>
       </c>
       <c r="E235" t="s">
-        <v>499</v>
+        <v>472</v>
       </c>
       <c r="F235" t="s">
         <v>57</v>
       </c>
       <c r="L235" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="236" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="236">
       <c r="A236" t="s">
-        <v>791</v>
+        <v>780</v>
       </c>
       <c r="B236" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C236" t="s">
-        <v>500</v>
+        <v>473</v>
       </c>
       <c r="D236" t="s">
-        <v>498</v>
+        <v>474</v>
       </c>
       <c r="E236" t="s">
-        <v>501</v>
+        <v>475</v>
       </c>
       <c r="F236" t="s">
         <v>57</v>
       </c>
       <c r="L236" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="237" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="237">
       <c r="A237" t="s">
-        <v>792</v>
+        <v>781</v>
       </c>
       <c r="B237" t="s">
         <v>12</v>
       </c>
       <c r="C237" t="s">
-        <v>502</v>
+        <v>476</v>
       </c>
       <c r="D237" t="s">
-        <v>498</v>
+        <v>477</v>
       </c>
       <c r="E237" t="s">
-        <v>503</v>
+        <v>478</v>
       </c>
       <c r="F237" t="s">
         <v>57</v>
       </c>
       <c r="L237" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="238" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="238">
       <c r="A238" t="s">
-        <v>793</v>
+        <v>782</v>
       </c>
       <c r="B238" t="s">
         <v>12</v>
       </c>
       <c r="C238" t="s">
-        <v>504</v>
+        <v>479</v>
       </c>
       <c r="D238" t="s">
-        <v>498</v>
+        <v>477</v>
       </c>
       <c r="E238" t="s">
-        <v>505</v>
+        <v>480</v>
       </c>
       <c r="F238" t="s">
         <v>57</v>
@@ -9179,90 +9279,90 @@
         <v>45</v>
       </c>
     </row>
-    <row r="239" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="239">
       <c r="A239" t="s">
-        <v>794</v>
+        <v>783</v>
       </c>
       <c r="B239" t="s">
         <v>12</v>
       </c>
       <c r="C239" t="s">
-        <v>506</v>
+        <v>481</v>
       </c>
       <c r="D239" t="s">
-        <v>498</v>
+        <v>477</v>
       </c>
       <c r="E239" t="s">
-        <v>507</v>
+        <v>482</v>
       </c>
       <c r="F239" t="s">
         <v>57</v>
       </c>
       <c r="L239" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="s">
+        <v>784</v>
+      </c>
+      <c r="B240" t="s">
+        <v>13</v>
+      </c>
+      <c r="C240" t="s">
+        <v>483</v>
+      </c>
+      <c r="D240" t="s">
+        <v>484</v>
+      </c>
+      <c r="E240" t="s">
+        <v>485</v>
+      </c>
+      <c r="F240" t="s">
+        <v>57</v>
+      </c>
+      <c r="L240" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="240" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A240" t="s">
-        <v>795</v>
-      </c>
-      <c r="B240" t="s">
-        <v>12</v>
-      </c>
-      <c r="C240" t="s">
-        <v>508</v>
-      </c>
-      <c r="D240" t="s">
-        <v>509</v>
-      </c>
-      <c r="E240" t="s">
-        <v>510</v>
-      </c>
-      <c r="F240" t="s">
-        <v>57</v>
-      </c>
-      <c r="L240" t="s">
+    <row r="241">
+      <c r="A241" t="s">
+        <v>785</v>
+      </c>
+      <c r="B241" t="s">
+        <v>13</v>
+      </c>
+      <c r="C241" t="s">
+        <v>486</v>
+      </c>
+      <c r="D241" t="s">
+        <v>484</v>
+      </c>
+      <c r="E241" t="s">
+        <v>487</v>
+      </c>
+      <c r="F241" t="s">
+        <v>57</v>
+      </c>
+      <c r="L241" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="241" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A241" t="s">
-        <v>796</v>
-      </c>
-      <c r="B241" t="s">
-        <v>12</v>
-      </c>
-      <c r="C241" t="s">
-        <v>511</v>
-      </c>
-      <c r="D241" t="s">
-        <v>509</v>
-      </c>
-      <c r="E241" t="s">
-        <v>512</v>
-      </c>
-      <c r="F241" t="s">
-        <v>57</v>
-      </c>
-      <c r="L241" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="242" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="242">
       <c r="A242" t="s">
-        <v>797</v>
+        <v>786</v>
       </c>
       <c r="B242" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C242" t="s">
-        <v>513</v>
+        <v>488</v>
       </c>
       <c r="D242" t="s">
-        <v>509</v>
+        <v>484</v>
       </c>
       <c r="E242" t="s">
-        <v>514</v>
+        <v>489</v>
       </c>
       <c r="F242" t="s">
         <v>57</v>
@@ -9271,113 +9371,113 @@
         <v>85</v>
       </c>
     </row>
-    <row r="243" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="243">
       <c r="A243" t="s">
-        <v>798</v>
+        <v>787</v>
       </c>
       <c r="B243" t="s">
         <v>12</v>
       </c>
       <c r="C243" t="s">
-        <v>515</v>
+        <v>490</v>
       </c>
       <c r="D243" t="s">
-        <v>509</v>
+        <v>491</v>
       </c>
       <c r="E243" t="s">
-        <v>516</v>
+        <v>492</v>
       </c>
       <c r="F243" t="s">
         <v>57</v>
       </c>
       <c r="L243" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="244" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="244">
       <c r="A244" t="s">
-        <v>799</v>
+        <v>788</v>
       </c>
       <c r="B244" t="s">
         <v>12</v>
       </c>
       <c r="C244" t="s">
-        <v>517</v>
+        <v>493</v>
       </c>
       <c r="D244" t="s">
-        <v>518</v>
+        <v>491</v>
       </c>
       <c r="E244" t="s">
-        <v>519</v>
+        <v>494</v>
       </c>
       <c r="F244" t="s">
         <v>57</v>
       </c>
       <c r="L244" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="245" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="245">
       <c r="A245" t="s">
-        <v>800</v>
+        <v>789</v>
       </c>
       <c r="B245" t="s">
         <v>12</v>
       </c>
       <c r="C245" t="s">
-        <v>520</v>
+        <v>495</v>
       </c>
       <c r="D245" t="s">
-        <v>518</v>
+        <v>491</v>
       </c>
       <c r="E245" t="s">
-        <v>521</v>
+        <v>496</v>
       </c>
       <c r="F245" t="s">
         <v>57</v>
       </c>
       <c r="L245" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="246" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="246">
       <c r="A246" t="s">
-        <v>801</v>
+        <v>790</v>
       </c>
       <c r="B246" t="s">
         <v>12</v>
       </c>
       <c r="C246" t="s">
-        <v>522</v>
+        <v>497</v>
       </c>
       <c r="D246" t="s">
-        <v>518</v>
+        <v>498</v>
       </c>
       <c r="E246" t="s">
-        <v>523</v>
+        <v>499</v>
       </c>
       <c r="F246" t="s">
         <v>57</v>
       </c>
       <c r="L246" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="247" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="247">
       <c r="A247" t="s">
-        <v>802</v>
+        <v>791</v>
       </c>
       <c r="B247" t="s">
         <v>12</v>
       </c>
       <c r="C247" t="s">
-        <v>524</v>
+        <v>500</v>
       </c>
       <c r="D247" t="s">
-        <v>525</v>
+        <v>498</v>
       </c>
       <c r="E247" t="s">
-        <v>526</v>
+        <v>501</v>
       </c>
       <c r="F247" t="s">
         <v>57</v>
@@ -9386,67 +9486,67 @@
         <v>85</v>
       </c>
     </row>
-    <row r="248" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="248">
       <c r="A248" t="s">
-        <v>803</v>
+        <v>792</v>
       </c>
       <c r="B248" t="s">
         <v>12</v>
       </c>
       <c r="C248" t="s">
-        <v>527</v>
+        <v>502</v>
       </c>
       <c r="D248" t="s">
-        <v>525</v>
+        <v>498</v>
       </c>
       <c r="E248" t="s">
-        <v>528</v>
+        <v>503</v>
       </c>
       <c r="F248" t="s">
         <v>57</v>
       </c>
       <c r="L248" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="249" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="249">
       <c r="A249" t="s">
-        <v>804</v>
+        <v>793</v>
       </c>
       <c r="B249" t="s">
         <v>12</v>
       </c>
       <c r="C249" t="s">
-        <v>529</v>
+        <v>504</v>
       </c>
       <c r="D249" t="s">
-        <v>525</v>
+        <v>498</v>
       </c>
       <c r="E249" t="s">
-        <v>528</v>
+        <v>505</v>
       </c>
       <c r="F249" t="s">
         <v>57</v>
       </c>
       <c r="L249" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="250" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="250">
       <c r="A250" t="s">
-        <v>805</v>
+        <v>794</v>
       </c>
       <c r="B250" t="s">
         <v>12</v>
       </c>
       <c r="C250" t="s">
-        <v>530</v>
+        <v>506</v>
       </c>
       <c r="D250" t="s">
-        <v>525</v>
+        <v>498</v>
       </c>
       <c r="E250" t="s">
-        <v>531</v>
+        <v>507</v>
       </c>
       <c r="F250" t="s">
         <v>57</v>
@@ -9455,21 +9555,21 @@
         <v>45</v>
       </c>
     </row>
-    <row r="251" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="251">
       <c r="A251" t="s">
-        <v>806</v>
+        <v>795</v>
       </c>
       <c r="B251" t="s">
         <v>12</v>
       </c>
       <c r="C251" t="s">
-        <v>532</v>
+        <v>508</v>
       </c>
       <c r="D251" t="s">
-        <v>533</v>
+        <v>509</v>
       </c>
       <c r="E251" t="s">
-        <v>534</v>
+        <v>510</v>
       </c>
       <c r="F251" t="s">
         <v>57</v>
@@ -9478,67 +9578,67 @@
         <v>17</v>
       </c>
     </row>
-    <row r="252" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="252">
       <c r="A252" t="s">
-        <v>807</v>
+        <v>796</v>
       </c>
       <c r="B252" t="s">
         <v>12</v>
       </c>
       <c r="C252" t="s">
-        <v>535</v>
+        <v>511</v>
       </c>
       <c r="D252" t="s">
-        <v>533</v>
+        <v>509</v>
       </c>
       <c r="E252" t="s">
-        <v>536</v>
+        <v>512</v>
       </c>
       <c r="F252" t="s">
         <v>57</v>
       </c>
       <c r="L252" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="253" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="253">
       <c r="A253" t="s">
-        <v>808</v>
+        <v>797</v>
       </c>
       <c r="B253" t="s">
         <v>12</v>
       </c>
       <c r="C253" t="s">
-        <v>537</v>
+        <v>513</v>
       </c>
       <c r="D253" t="s">
-        <v>533</v>
+        <v>509</v>
       </c>
       <c r="E253" t="s">
-        <v>538</v>
+        <v>514</v>
       </c>
       <c r="F253" t="s">
         <v>57</v>
       </c>
       <c r="L253" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="254" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="254">
       <c r="A254" t="s">
-        <v>809</v>
+        <v>798</v>
       </c>
       <c r="B254" t="s">
         <v>12</v>
       </c>
       <c r="C254" t="s">
-        <v>539</v>
+        <v>515</v>
       </c>
       <c r="D254" t="s">
-        <v>533</v>
+        <v>509</v>
       </c>
       <c r="E254" t="s">
-        <v>540</v>
+        <v>516</v>
       </c>
       <c r="F254" t="s">
         <v>57</v>
@@ -9547,136 +9647,136 @@
         <v>85</v>
       </c>
     </row>
-    <row r="255" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="255">
       <c r="A255" t="s">
-        <v>810</v>
+        <v>799</v>
       </c>
       <c r="B255" t="s">
         <v>12</v>
       </c>
       <c r="C255" t="s">
-        <v>541</v>
+        <v>517</v>
       </c>
       <c r="D255" t="s">
-        <v>542</v>
+        <v>518</v>
       </c>
       <c r="E255" t="s">
-        <v>543</v>
+        <v>519</v>
       </c>
       <c r="F255" t="s">
         <v>57</v>
       </c>
       <c r="L255" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="s">
+        <v>800</v>
+      </c>
+      <c r="B256" t="s">
+        <v>12</v>
+      </c>
+      <c r="C256" t="s">
+        <v>520</v>
+      </c>
+      <c r="D256" t="s">
+        <v>518</v>
+      </c>
+      <c r="E256" t="s">
+        <v>521</v>
+      </c>
+      <c r="F256" t="s">
+        <v>57</v>
+      </c>
+      <c r="L256" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="s">
+        <v>801</v>
+      </c>
+      <c r="B257" t="s">
+        <v>12</v>
+      </c>
+      <c r="C257" t="s">
+        <v>522</v>
+      </c>
+      <c r="D257" t="s">
+        <v>518</v>
+      </c>
+      <c r="E257" t="s">
+        <v>523</v>
+      </c>
+      <c r="F257" t="s">
+        <v>57</v>
+      </c>
+      <c r="L257" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="s">
+        <v>802</v>
+      </c>
+      <c r="B258" t="s">
+        <v>12</v>
+      </c>
+      <c r="C258" t="s">
+        <v>524</v>
+      </c>
+      <c r="D258" t="s">
+        <v>525</v>
+      </c>
+      <c r="E258" t="s">
+        <v>526</v>
+      </c>
+      <c r="F258" t="s">
+        <v>57</v>
+      </c>
+      <c r="L258" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="256" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A256" t="s">
-        <v>811</v>
-      </c>
-      <c r="B256" t="s">
-        <v>12</v>
-      </c>
-      <c r="C256" t="s">
-        <v>544</v>
-      </c>
-      <c r="D256" t="s">
-        <v>542</v>
-      </c>
-      <c r="E256" t="s">
-        <v>545</v>
-      </c>
-      <c r="F256" t="s">
-        <v>57</v>
-      </c>
-      <c r="L256" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="257" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A257" t="s">
-        <v>812</v>
-      </c>
-      <c r="B257" t="s">
-        <v>12</v>
-      </c>
-      <c r="C257" t="s">
-        <v>546</v>
-      </c>
-      <c r="D257" t="s">
-        <v>542</v>
-      </c>
-      <c r="E257" t="s">
-        <v>547</v>
-      </c>
-      <c r="F257" t="s">
-        <v>57</v>
-      </c>
-      <c r="L257" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="258" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A258" t="s">
-        <v>813</v>
-      </c>
-      <c r="B258" t="s">
-        <v>12</v>
-      </c>
-      <c r="C258" t="s">
-        <v>548</v>
-      </c>
-      <c r="D258" t="s">
-        <v>549</v>
-      </c>
-      <c r="E258" t="s">
-        <v>550</v>
-      </c>
-      <c r="F258" t="s">
-        <v>57</v>
-      </c>
-      <c r="L258" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="259" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="259">
       <c r="A259" t="s">
-        <v>814</v>
+        <v>803</v>
       </c>
       <c r="B259" t="s">
         <v>12</v>
       </c>
       <c r="C259" t="s">
-        <v>551</v>
+        <v>527</v>
       </c>
       <c r="D259" t="s">
-        <v>549</v>
+        <v>525</v>
       </c>
       <c r="E259" t="s">
-        <v>552</v>
+        <v>528</v>
       </c>
       <c r="F259" t="s">
         <v>57</v>
       </c>
       <c r="L259" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="260" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="260">
       <c r="A260" t="s">
-        <v>815</v>
+        <v>804</v>
       </c>
       <c r="B260" t="s">
         <v>12</v>
       </c>
       <c r="C260" t="s">
-        <v>553</v>
+        <v>529</v>
       </c>
       <c r="D260" t="s">
-        <v>554</v>
+        <v>525</v>
       </c>
       <c r="E260" t="s">
-        <v>555</v>
+        <v>528</v>
       </c>
       <c r="F260" t="s">
         <v>57</v>
@@ -9685,113 +9785,113 @@
         <v>85</v>
       </c>
     </row>
-    <row r="261" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="261">
       <c r="A261" t="s">
-        <v>816</v>
+        <v>805</v>
       </c>
       <c r="B261" t="s">
         <v>12</v>
       </c>
       <c r="C261" t="s">
-        <v>556</v>
+        <v>530</v>
       </c>
       <c r="D261" t="s">
-        <v>554</v>
+        <v>525</v>
       </c>
       <c r="E261" t="s">
-        <v>557</v>
+        <v>531</v>
       </c>
       <c r="F261" t="s">
         <v>57</v>
       </c>
       <c r="L261" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="262" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="262">
       <c r="A262" t="s">
-        <v>817</v>
+        <v>806</v>
       </c>
       <c r="B262" t="s">
         <v>12</v>
       </c>
       <c r="C262" t="s">
-        <v>558</v>
+        <v>532</v>
       </c>
       <c r="D262" t="s">
-        <v>554</v>
+        <v>533</v>
       </c>
       <c r="E262" t="s">
-        <v>559</v>
+        <v>534</v>
       </c>
       <c r="F262" t="s">
         <v>57</v>
       </c>
       <c r="L262" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="263" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="263">
       <c r="A263" t="s">
-        <v>818</v>
+        <v>807</v>
       </c>
       <c r="B263" t="s">
         <v>12</v>
       </c>
       <c r="C263" t="s">
-        <v>560</v>
+        <v>535</v>
       </c>
       <c r="D263" t="s">
-        <v>554</v>
+        <v>533</v>
       </c>
       <c r="E263" t="s">
-        <v>561</v>
+        <v>536</v>
       </c>
       <c r="F263" t="s">
         <v>57</v>
       </c>
       <c r="L263" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="264" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="264">
       <c r="A264" t="s">
-        <v>819</v>
+        <v>808</v>
       </c>
       <c r="B264" t="s">
         <v>12</v>
       </c>
       <c r="C264" t="s">
-        <v>562</v>
+        <v>537</v>
       </c>
       <c r="D264" t="s">
-        <v>563</v>
+        <v>533</v>
       </c>
       <c r="E264" t="s">
-        <v>564</v>
+        <v>538</v>
       </c>
       <c r="F264" t="s">
         <v>57</v>
       </c>
       <c r="L264" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="265" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="265">
       <c r="A265" t="s">
-        <v>820</v>
+        <v>809</v>
       </c>
       <c r="B265" t="s">
         <v>12</v>
       </c>
       <c r="C265" t="s">
-        <v>565</v>
+        <v>539</v>
       </c>
       <c r="D265" t="s">
-        <v>563</v>
+        <v>533</v>
       </c>
       <c r="E265" t="s">
-        <v>566</v>
+        <v>540</v>
       </c>
       <c r="F265" t="s">
         <v>57</v>
@@ -9800,90 +9900,90 @@
         <v>85</v>
       </c>
     </row>
-    <row r="266" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="266">
       <c r="A266" t="s">
-        <v>821</v>
+        <v>810</v>
       </c>
       <c r="B266" t="s">
         <v>12</v>
       </c>
       <c r="C266" t="s">
-        <v>567</v>
+        <v>541</v>
       </c>
       <c r="D266" t="s">
-        <v>563</v>
+        <v>542</v>
       </c>
       <c r="E266" t="s">
-        <v>568</v>
+        <v>543</v>
       </c>
       <c r="F266" t="s">
         <v>57</v>
       </c>
       <c r="L266" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="267" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="267">
       <c r="A267" t="s">
-        <v>822</v>
+        <v>811</v>
       </c>
       <c r="B267" t="s">
         <v>12</v>
       </c>
       <c r="C267" t="s">
-        <v>569</v>
+        <v>544</v>
       </c>
       <c r="D267" t="s">
-        <v>563</v>
+        <v>542</v>
       </c>
       <c r="E267" t="s">
-        <v>570</v>
+        <v>545</v>
       </c>
       <c r="F267" t="s">
         <v>57</v>
       </c>
       <c r="L267" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="268" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="268">
       <c r="A268" t="s">
-        <v>823</v>
+        <v>812</v>
       </c>
       <c r="B268" t="s">
         <v>12</v>
       </c>
       <c r="C268" t="s">
-        <v>571</v>
+        <v>546</v>
       </c>
       <c r="D268" t="s">
-        <v>572</v>
+        <v>542</v>
       </c>
       <c r="E268" t="s">
-        <v>573</v>
+        <v>547</v>
       </c>
       <c r="F268" t="s">
         <v>57</v>
       </c>
       <c r="L268" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="269" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="269">
       <c r="A269" t="s">
-        <v>824</v>
+        <v>813</v>
       </c>
       <c r="B269" t="s">
         <v>12</v>
       </c>
       <c r="C269" t="s">
-        <v>574</v>
+        <v>548</v>
       </c>
       <c r="D269" t="s">
-        <v>572</v>
+        <v>549</v>
       </c>
       <c r="E269" t="s">
-        <v>575</v>
+        <v>550</v>
       </c>
       <c r="F269" t="s">
         <v>57</v>
@@ -9892,44 +9992,44 @@
         <v>17</v>
       </c>
     </row>
-    <row r="270" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="270">
       <c r="A270" t="s">
-        <v>825</v>
+        <v>814</v>
       </c>
       <c r="B270" t="s">
         <v>12</v>
       </c>
       <c r="C270" t="s">
-        <v>576</v>
+        <v>551</v>
       </c>
       <c r="D270" t="s">
-        <v>572</v>
+        <v>549</v>
       </c>
       <c r="E270" t="s">
-        <v>577</v>
+        <v>552</v>
       </c>
       <c r="F270" t="s">
         <v>57</v>
       </c>
       <c r="L270" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="271" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="271">
       <c r="A271" t="s">
-        <v>826</v>
+        <v>815</v>
       </c>
       <c r="B271" t="s">
         <v>12</v>
       </c>
       <c r="C271" t="s">
-        <v>578</v>
+        <v>553</v>
       </c>
       <c r="D271" t="s">
-        <v>572</v>
+        <v>554</v>
       </c>
       <c r="E271" t="s">
-        <v>579</v>
+        <v>555</v>
       </c>
       <c r="F271" t="s">
         <v>57</v>
@@ -9938,44 +10038,44 @@
         <v>85</v>
       </c>
     </row>
-    <row r="272" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="272">
       <c r="A272" t="s">
-        <v>827</v>
+        <v>816</v>
       </c>
       <c r="B272" t="s">
         <v>12</v>
       </c>
       <c r="C272" t="s">
-        <v>580</v>
+        <v>556</v>
       </c>
       <c r="D272" t="s">
-        <v>572</v>
+        <v>554</v>
       </c>
       <c r="E272" t="s">
-        <v>581</v>
+        <v>557</v>
       </c>
       <c r="F272" t="s">
         <v>57</v>
       </c>
       <c r="L272" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="273" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="273">
       <c r="A273" t="s">
-        <v>828</v>
+        <v>817</v>
       </c>
       <c r="B273" t="s">
         <v>12</v>
       </c>
       <c r="C273" t="s">
-        <v>582</v>
+        <v>558</v>
       </c>
       <c r="D273" t="s">
-        <v>572</v>
+        <v>554</v>
       </c>
       <c r="E273" t="s">
-        <v>583</v>
+        <v>559</v>
       </c>
       <c r="F273" t="s">
         <v>57</v>
@@ -9984,113 +10084,113 @@
         <v>85</v>
       </c>
     </row>
-    <row r="274" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="274">
       <c r="A274" t="s">
-        <v>829</v>
+        <v>818</v>
       </c>
       <c r="B274" t="s">
         <v>12</v>
       </c>
       <c r="C274" t="s">
-        <v>584</v>
+        <v>560</v>
       </c>
       <c r="D274" t="s">
-        <v>572</v>
+        <v>554</v>
       </c>
       <c r="E274" t="s">
-        <v>585</v>
+        <v>561</v>
       </c>
       <c r="F274" t="s">
         <v>57</v>
       </c>
       <c r="L274" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="s">
+        <v>819</v>
+      </c>
+      <c r="B275" t="s">
+        <v>12</v>
+      </c>
+      <c r="C275" t="s">
+        <v>562</v>
+      </c>
+      <c r="D275" t="s">
+        <v>563</v>
+      </c>
+      <c r="E275" t="s">
+        <v>564</v>
+      </c>
+      <c r="F275" t="s">
+        <v>57</v>
+      </c>
+      <c r="L275" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="s">
+        <v>820</v>
+      </c>
+      <c r="B276" t="s">
+        <v>12</v>
+      </c>
+      <c r="C276" t="s">
+        <v>565</v>
+      </c>
+      <c r="D276" t="s">
+        <v>563</v>
+      </c>
+      <c r="E276" t="s">
+        <v>566</v>
+      </c>
+      <c r="F276" t="s">
+        <v>57</v>
+      </c>
+      <c r="L276" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="275" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A275" t="s">
-        <v>830</v>
-      </c>
-      <c r="B275" t="s">
-        <v>12</v>
-      </c>
-      <c r="C275" t="s">
-        <v>586</v>
-      </c>
-      <c r="D275" t="s">
-        <v>572</v>
-      </c>
-      <c r="E275" t="s">
-        <v>587</v>
-      </c>
-      <c r="F275" t="s">
-        <v>57</v>
-      </c>
-      <c r="L275" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="276" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A276" t="s">
-        <v>831</v>
-      </c>
-      <c r="B276" t="s">
-        <v>12</v>
-      </c>
-      <c r="C276" t="s">
-        <v>588</v>
-      </c>
-      <c r="D276" t="s">
-        <v>572</v>
-      </c>
-      <c r="E276" t="s">
-        <v>589</v>
-      </c>
-      <c r="F276" t="s">
-        <v>57</v>
-      </c>
-      <c r="L276" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="277" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="277">
       <c r="A277" t="s">
-        <v>832</v>
+        <v>821</v>
       </c>
       <c r="B277" t="s">
         <v>12</v>
       </c>
       <c r="C277" t="s">
-        <v>590</v>
+        <v>567</v>
       </c>
       <c r="D277" t="s">
-        <v>572</v>
+        <v>563</v>
       </c>
       <c r="E277" t="s">
-        <v>591</v>
+        <v>568</v>
       </c>
       <c r="F277" t="s">
         <v>57</v>
       </c>
       <c r="L277" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="278" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="278">
       <c r="A278" t="s">
-        <v>833</v>
+        <v>822</v>
       </c>
       <c r="B278" t="s">
         <v>12</v>
       </c>
       <c r="C278" t="s">
-        <v>592</v>
+        <v>569</v>
       </c>
       <c r="D278" t="s">
-        <v>572</v>
+        <v>563</v>
       </c>
       <c r="E278" t="s">
-        <v>593</v>
+        <v>570</v>
       </c>
       <c r="F278" t="s">
         <v>57</v>
@@ -10099,228 +10199,228 @@
         <v>17</v>
       </c>
     </row>
-    <row r="279" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="279">
       <c r="A279" t="s">
-        <v>834</v>
+        <v>823</v>
       </c>
       <c r="B279" t="s">
         <v>12</v>
       </c>
       <c r="C279" t="s">
-        <v>594</v>
+        <v>571</v>
       </c>
       <c r="D279" t="s">
         <v>572</v>
       </c>
       <c r="E279" t="s">
-        <v>595</v>
+        <v>573</v>
       </c>
       <c r="F279" t="s">
         <v>57</v>
       </c>
       <c r="L279" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="280" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="280">
       <c r="A280" t="s">
-        <v>835</v>
+        <v>824</v>
       </c>
       <c r="B280" t="s">
         <v>12</v>
       </c>
       <c r="C280" t="s">
-        <v>596</v>
+        <v>574</v>
       </c>
       <c r="D280" t="s">
         <v>572</v>
       </c>
       <c r="E280" t="s">
-        <v>597</v>
+        <v>575</v>
       </c>
       <c r="F280" t="s">
         <v>57</v>
       </c>
       <c r="L280" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="s">
+        <v>825</v>
+      </c>
+      <c r="B281" t="s">
+        <v>12</v>
+      </c>
+      <c r="C281" t="s">
+        <v>576</v>
+      </c>
+      <c r="D281" t="s">
+        <v>572</v>
+      </c>
+      <c r="E281" t="s">
+        <v>577</v>
+      </c>
+      <c r="F281" t="s">
+        <v>57</v>
+      </c>
+      <c r="L281" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="s">
+        <v>826</v>
+      </c>
+      <c r="B282" t="s">
+        <v>12</v>
+      </c>
+      <c r="C282" t="s">
+        <v>578</v>
+      </c>
+      <c r="D282" t="s">
+        <v>572</v>
+      </c>
+      <c r="E282" t="s">
+        <v>579</v>
+      </c>
+      <c r="F282" t="s">
+        <v>57</v>
+      </c>
+      <c r="L282" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="s">
+        <v>827</v>
+      </c>
+      <c r="B283" t="s">
+        <v>12</v>
+      </c>
+      <c r="C283" t="s">
+        <v>580</v>
+      </c>
+      <c r="D283" t="s">
+        <v>572</v>
+      </c>
+      <c r="E283" t="s">
+        <v>581</v>
+      </c>
+      <c r="F283" t="s">
+        <v>57</v>
+      </c>
+      <c r="L283" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="281" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A281" t="s">
-        <v>836</v>
-      </c>
-      <c r="B281" t="s">
-        <v>12</v>
-      </c>
-      <c r="C281" t="s">
-        <v>598</v>
-      </c>
-      <c r="D281" t="s">
-        <v>599</v>
-      </c>
-      <c r="E281" t="s">
-        <v>600</v>
-      </c>
-      <c r="F281" t="s">
-        <v>57</v>
-      </c>
-      <c r="L281" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="282" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A282" t="s">
-        <v>837</v>
-      </c>
-      <c r="B282" t="s">
-        <v>12</v>
-      </c>
-      <c r="C282" t="s">
-        <v>601</v>
-      </c>
-      <c r="D282" t="s">
-        <v>599</v>
-      </c>
-      <c r="E282" t="s">
-        <v>602</v>
-      </c>
-      <c r="F282" t="s">
-        <v>57</v>
-      </c>
-      <c r="L282" t="s">
+    <row r="284">
+      <c r="A284" t="s">
+        <v>828</v>
+      </c>
+      <c r="B284" t="s">
+        <v>12</v>
+      </c>
+      <c r="C284" t="s">
+        <v>582</v>
+      </c>
+      <c r="D284" t="s">
+        <v>572</v>
+      </c>
+      <c r="E284" t="s">
+        <v>583</v>
+      </c>
+      <c r="F284" t="s">
+        <v>57</v>
+      </c>
+      <c r="L284" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="s">
+        <v>829</v>
+      </c>
+      <c r="B285" t="s">
+        <v>12</v>
+      </c>
+      <c r="C285" t="s">
+        <v>584</v>
+      </c>
+      <c r="D285" t="s">
+        <v>572</v>
+      </c>
+      <c r="E285" t="s">
+        <v>585</v>
+      </c>
+      <c r="F285" t="s">
+        <v>57</v>
+      </c>
+      <c r="L285" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="s">
+        <v>830</v>
+      </c>
+      <c r="B286" t="s">
+        <v>12</v>
+      </c>
+      <c r="C286" t="s">
+        <v>586</v>
+      </c>
+      <c r="D286" t="s">
+        <v>572</v>
+      </c>
+      <c r="E286" t="s">
+        <v>587</v>
+      </c>
+      <c r="F286" t="s">
+        <v>57</v>
+      </c>
+      <c r="L286" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="s">
+        <v>831</v>
+      </c>
+      <c r="B287" t="s">
+        <v>12</v>
+      </c>
+      <c r="C287" t="s">
+        <v>588</v>
+      </c>
+      <c r="D287" t="s">
+        <v>572</v>
+      </c>
+      <c r="E287" t="s">
+        <v>589</v>
+      </c>
+      <c r="F287" t="s">
+        <v>57</v>
+      </c>
+      <c r="L287" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="283" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A283" t="s">
-        <v>838</v>
-      </c>
-      <c r="B283" t="s">
-        <v>12</v>
-      </c>
-      <c r="C283" t="s">
-        <v>603</v>
-      </c>
-      <c r="D283" t="s">
-        <v>599</v>
-      </c>
-      <c r="E283" t="s">
-        <v>604</v>
-      </c>
-      <c r="F283" t="s">
-        <v>57</v>
-      </c>
-      <c r="L283" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="284" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A284" t="s">
-        <v>839</v>
-      </c>
-      <c r="B284" t="s">
-        <v>12</v>
-      </c>
-      <c r="C284" t="s">
-        <v>605</v>
-      </c>
-      <c r="D284" t="s">
-        <v>599</v>
-      </c>
-      <c r="E284" t="s">
-        <v>606</v>
-      </c>
-      <c r="F284" t="s">
-        <v>57</v>
-      </c>
-      <c r="L284" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="285" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A285" t="s">
-        <v>840</v>
-      </c>
-      <c r="B285" t="s">
-        <v>12</v>
-      </c>
-      <c r="C285" t="s">
-        <v>607</v>
-      </c>
-      <c r="D285" t="s">
-        <v>599</v>
-      </c>
-      <c r="E285" t="s">
-        <v>608</v>
-      </c>
-      <c r="F285" t="s">
-        <v>57</v>
-      </c>
-      <c r="L285" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="286" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A286" t="s">
-        <v>841</v>
-      </c>
-      <c r="B286" t="s">
-        <v>12</v>
-      </c>
-      <c r="C286" t="s">
-        <v>609</v>
-      </c>
-      <c r="D286" t="s">
-        <v>610</v>
-      </c>
-      <c r="E286" t="s">
-        <v>611</v>
-      </c>
-      <c r="F286" t="s">
-        <v>57</v>
-      </c>
-      <c r="L286" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="287" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A287" t="s">
-        <v>842</v>
-      </c>
-      <c r="B287" t="s">
-        <v>12</v>
-      </c>
-      <c r="C287" t="s">
-        <v>612</v>
-      </c>
-      <c r="D287" t="s">
-        <v>610</v>
-      </c>
-      <c r="E287" t="s">
-        <v>613</v>
-      </c>
-      <c r="F287" t="s">
-        <v>57</v>
-      </c>
-      <c r="L287" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="288" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="288">
       <c r="A288" t="s">
-        <v>843</v>
+        <v>832</v>
       </c>
       <c r="B288" t="s">
         <v>12</v>
       </c>
       <c r="C288" t="s">
-        <v>614</v>
+        <v>590</v>
       </c>
       <c r="D288" t="s">
-        <v>615</v>
+        <v>572</v>
       </c>
       <c r="E288" t="s">
-        <v>616</v>
+        <v>591</v>
       </c>
       <c r="F288" t="s">
         <v>57</v>
@@ -10329,21 +10429,21 @@
         <v>58</v>
       </c>
     </row>
-    <row r="289" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="289">
       <c r="A289" t="s">
-        <v>844</v>
+        <v>833</v>
       </c>
       <c r="B289" t="s">
         <v>12</v>
       </c>
       <c r="C289" t="s">
-        <v>617</v>
+        <v>592</v>
       </c>
       <c r="D289" t="s">
-        <v>615</v>
+        <v>572</v>
       </c>
       <c r="E289" t="s">
-        <v>618</v>
+        <v>593</v>
       </c>
       <c r="F289" t="s">
         <v>57</v>
@@ -10352,251 +10452,251 @@
         <v>17</v>
       </c>
     </row>
-    <row r="290" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="290">
       <c r="A290" t="s">
-        <v>845</v>
+        <v>834</v>
       </c>
       <c r="B290" t="s">
         <v>12</v>
       </c>
       <c r="C290" t="s">
-        <v>619</v>
+        <v>594</v>
       </c>
       <c r="D290" t="s">
-        <v>620</v>
+        <v>572</v>
       </c>
       <c r="E290" t="s">
-        <v>621</v>
+        <v>595</v>
       </c>
       <c r="F290" t="s">
         <v>57</v>
       </c>
       <c r="L290" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="s">
+        <v>835</v>
+      </c>
+      <c r="B291" t="s">
+        <v>12</v>
+      </c>
+      <c r="C291" t="s">
+        <v>596</v>
+      </c>
+      <c r="D291" t="s">
+        <v>572</v>
+      </c>
+      <c r="E291" t="s">
+        <v>597</v>
+      </c>
+      <c r="F291" t="s">
+        <v>57</v>
+      </c>
+      <c r="L291" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="s">
+        <v>836</v>
+      </c>
+      <c r="B292" t="s">
+        <v>12</v>
+      </c>
+      <c r="C292" t="s">
+        <v>598</v>
+      </c>
+      <c r="D292" t="s">
+        <v>599</v>
+      </c>
+      <c r="E292" t="s">
+        <v>600</v>
+      </c>
+      <c r="F292" t="s">
+        <v>57</v>
+      </c>
+      <c r="L292" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="291" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A291" t="s">
-        <v>846</v>
-      </c>
-      <c r="B291" t="s">
-        <v>12</v>
-      </c>
-      <c r="C291" t="s">
-        <v>622</v>
-      </c>
-      <c r="D291" t="s">
-        <v>620</v>
-      </c>
-      <c r="E291" t="s">
-        <v>623</v>
-      </c>
-      <c r="F291" t="s">
-        <v>57</v>
-      </c>
-      <c r="L291" t="s">
+    <row r="293">
+      <c r="A293" t="s">
+        <v>837</v>
+      </c>
+      <c r="B293" t="s">
+        <v>12</v>
+      </c>
+      <c r="C293" t="s">
+        <v>601</v>
+      </c>
+      <c r="D293" t="s">
+        <v>599</v>
+      </c>
+      <c r="E293" t="s">
+        <v>602</v>
+      </c>
+      <c r="F293" t="s">
+        <v>57</v>
+      </c>
+      <c r="L293" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="s">
+        <v>838</v>
+      </c>
+      <c r="B294" t="s">
+        <v>12</v>
+      </c>
+      <c r="C294" t="s">
+        <v>603</v>
+      </c>
+      <c r="D294" t="s">
+        <v>599</v>
+      </c>
+      <c r="E294" t="s">
+        <v>604</v>
+      </c>
+      <c r="F294" t="s">
+        <v>57</v>
+      </c>
+      <c r="L294" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="s">
+        <v>839</v>
+      </c>
+      <c r="B295" t="s">
+        <v>12</v>
+      </c>
+      <c r="C295" t="s">
+        <v>605</v>
+      </c>
+      <c r="D295" t="s">
+        <v>599</v>
+      </c>
+      <c r="E295" t="s">
+        <v>606</v>
+      </c>
+      <c r="F295" t="s">
+        <v>57</v>
+      </c>
+      <c r="L295" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="s">
+        <v>840</v>
+      </c>
+      <c r="B296" t="s">
+        <v>12</v>
+      </c>
+      <c r="C296" t="s">
+        <v>607</v>
+      </c>
+      <c r="D296" t="s">
+        <v>599</v>
+      </c>
+      <c r="E296" t="s">
+        <v>608</v>
+      </c>
+      <c r="F296" t="s">
+        <v>57</v>
+      </c>
+      <c r="L296" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="292" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A292" t="s">
-        <v>847</v>
-      </c>
-      <c r="B292" t="s">
-        <v>624</v>
-      </c>
-      <c r="C292" t="s">
-        <v>625</v>
-      </c>
-      <c r="D292" t="s">
-        <v>626</v>
-      </c>
-      <c r="E292" t="s">
-        <v>627</v>
-      </c>
-      <c r="F292" t="s">
-        <v>57</v>
-      </c>
-      <c r="L292" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="293" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A293" t="s">
-        <v>848</v>
-      </c>
-      <c r="B293" t="s">
-        <v>624</v>
-      </c>
-      <c r="C293" t="s">
-        <v>628</v>
-      </c>
-      <c r="D293" t="s">
-        <v>626</v>
-      </c>
-      <c r="E293" t="s">
-        <v>629</v>
-      </c>
-      <c r="F293" t="s">
-        <v>57</v>
-      </c>
-      <c r="L293" t="s">
+    <row r="297">
+      <c r="A297" t="s">
+        <v>841</v>
+      </c>
+      <c r="B297" t="s">
+        <v>12</v>
+      </c>
+      <c r="C297" t="s">
+        <v>609</v>
+      </c>
+      <c r="D297" t="s">
+        <v>610</v>
+      </c>
+      <c r="E297" t="s">
+        <v>611</v>
+      </c>
+      <c r="F297" t="s">
+        <v>57</v>
+      </c>
+      <c r="L297" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="s">
+        <v>842</v>
+      </c>
+      <c r="B298" t="s">
+        <v>12</v>
+      </c>
+      <c r="C298" t="s">
+        <v>612</v>
+      </c>
+      <c r="D298" t="s">
+        <v>610</v>
+      </c>
+      <c r="E298" t="s">
+        <v>613</v>
+      </c>
+      <c r="F298" t="s">
+        <v>57</v>
+      </c>
+      <c r="L298" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="294" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A294" t="s">
-        <v>849</v>
-      </c>
-      <c r="B294" t="s">
-        <v>624</v>
-      </c>
-      <c r="C294" t="s">
-        <v>630</v>
-      </c>
-      <c r="D294" t="s">
-        <v>626</v>
-      </c>
-      <c r="E294" t="s">
-        <v>631</v>
-      </c>
-      <c r="F294" t="s">
-        <v>57</v>
-      </c>
-      <c r="L294" t="s">
+    <row r="299">
+      <c r="A299" t="s">
+        <v>843</v>
+      </c>
+      <c r="B299" t="s">
+        <v>12</v>
+      </c>
+      <c r="C299" t="s">
+        <v>614</v>
+      </c>
+      <c r="D299" t="s">
+        <v>615</v>
+      </c>
+      <c r="E299" t="s">
+        <v>616</v>
+      </c>
+      <c r="F299" t="s">
+        <v>57</v>
+      </c>
+      <c r="L299" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="295" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A295" t="s">
-        <v>850</v>
-      </c>
-      <c r="B295" t="s">
-        <v>624</v>
-      </c>
-      <c r="C295" t="s">
-        <v>632</v>
-      </c>
-      <c r="D295" t="s">
-        <v>626</v>
-      </c>
-      <c r="E295" t="s">
-        <v>633</v>
-      </c>
-      <c r="F295" t="s">
-        <v>57</v>
-      </c>
-      <c r="L295" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="296" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A296" t="s">
-        <v>851</v>
-      </c>
-      <c r="B296" t="s">
-        <v>624</v>
-      </c>
-      <c r="C296" t="s">
-        <v>634</v>
-      </c>
-      <c r="D296" t="s">
-        <v>626</v>
-      </c>
-      <c r="E296" t="s">
-        <v>635</v>
-      </c>
-      <c r="F296" t="s">
-        <v>57</v>
-      </c>
-      <c r="L296" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="297" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A297" t="s">
-        <v>852</v>
-      </c>
-      <c r="B297" t="s">
-        <v>624</v>
-      </c>
-      <c r="C297" t="s">
-        <v>636</v>
-      </c>
-      <c r="D297" t="s">
-        <v>626</v>
-      </c>
-      <c r="E297" t="s">
-        <v>637</v>
-      </c>
-      <c r="F297" t="s">
-        <v>57</v>
-      </c>
-      <c r="L297" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="298" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A298" t="s">
-        <v>853</v>
-      </c>
-      <c r="B298" t="s">
-        <v>624</v>
-      </c>
-      <c r="C298" t="s">
-        <v>638</v>
-      </c>
-      <c r="D298" t="s">
-        <v>626</v>
-      </c>
-      <c r="E298" t="s">
-        <v>639</v>
-      </c>
-      <c r="F298" t="s">
-        <v>57</v>
-      </c>
-      <c r="L298" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="299" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A299" t="s">
-        <v>854</v>
-      </c>
-      <c r="B299" t="s">
-        <v>624</v>
-      </c>
-      <c r="C299" t="s">
-        <v>640</v>
-      </c>
-      <c r="D299" t="s">
-        <v>626</v>
-      </c>
-      <c r="E299" t="s">
-        <v>641</v>
-      </c>
-      <c r="F299" t="s">
-        <v>57</v>
-      </c>
-      <c r="L299" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="300" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="300">
       <c r="A300" t="s">
-        <v>855</v>
+        <v>844</v>
       </c>
       <c r="B300" t="s">
-        <v>624</v>
+        <v>12</v>
       </c>
       <c r="C300" t="s">
-        <v>642</v>
+        <v>617</v>
       </c>
       <c r="D300" t="s">
-        <v>626</v>
+        <v>615</v>
       </c>
       <c r="E300" t="s">
-        <v>643</v>
+        <v>618</v>
       </c>
       <c r="F300" t="s">
         <v>57</v>
@@ -10605,44 +10705,44 @@
         <v>17</v>
       </c>
     </row>
-    <row r="301" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="301">
       <c r="A301" t="s">
-        <v>856</v>
+        <v>845</v>
       </c>
       <c r="B301" t="s">
-        <v>624</v>
+        <v>12</v>
       </c>
       <c r="C301" t="s">
-        <v>644</v>
+        <v>619</v>
       </c>
       <c r="D301" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
       <c r="E301" t="s">
-        <v>645</v>
+        <v>621</v>
       </c>
       <c r="F301" t="s">
         <v>57</v>
       </c>
       <c r="L301" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="302" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="302">
       <c r="A302" t="s">
-        <v>857</v>
+        <v>846</v>
       </c>
       <c r="B302" t="s">
-        <v>624</v>
+        <v>12</v>
       </c>
       <c r="C302" t="s">
-        <v>646</v>
+        <v>622</v>
       </c>
       <c r="D302" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
       <c r="E302" t="s">
-        <v>647</v>
+        <v>623</v>
       </c>
       <c r="F302" t="s">
         <v>57</v>
@@ -10651,182 +10751,182 @@
         <v>45</v>
       </c>
     </row>
-    <row r="303" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="303">
       <c r="A303" t="s">
-        <v>858</v>
+        <v>847</v>
       </c>
       <c r="B303" t="s">
         <v>624</v>
       </c>
       <c r="C303" t="s">
-        <v>648</v>
+        <v>625</v>
       </c>
       <c r="D303" t="s">
-        <v>649</v>
+        <v>626</v>
       </c>
       <c r="E303" t="s">
-        <v>650</v>
+        <v>627</v>
       </c>
       <c r="F303" t="s">
         <v>57</v>
       </c>
       <c r="L303" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="304" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="304">
       <c r="A304" t="s">
-        <v>859</v>
+        <v>848</v>
       </c>
       <c r="B304" t="s">
         <v>624</v>
       </c>
       <c r="C304" t="s">
-        <v>651</v>
+        <v>628</v>
       </c>
       <c r="D304" t="s">
-        <v>649</v>
+        <v>626</v>
       </c>
       <c r="E304" t="s">
-        <v>652</v>
+        <v>629</v>
       </c>
       <c r="F304" t="s">
         <v>57</v>
       </c>
       <c r="L304" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="305" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="305">
       <c r="A305" t="s">
-        <v>860</v>
+        <v>849</v>
       </c>
       <c r="B305" t="s">
         <v>624</v>
       </c>
       <c r="C305" t="s">
-        <v>653</v>
+        <v>630</v>
       </c>
       <c r="D305" t="s">
-        <v>649</v>
+        <v>626</v>
       </c>
       <c r="E305" t="s">
-        <v>654</v>
+        <v>631</v>
       </c>
       <c r="F305" t="s">
         <v>57</v>
       </c>
       <c r="L305" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="306" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="306">
       <c r="A306" t="s">
-        <v>861</v>
+        <v>850</v>
       </c>
       <c r="B306" t="s">
         <v>624</v>
       </c>
       <c r="C306" t="s">
-        <v>655</v>
+        <v>632</v>
       </c>
       <c r="D306" t="s">
-        <v>649</v>
+        <v>626</v>
       </c>
       <c r="E306" t="s">
-        <v>656</v>
+        <v>633</v>
       </c>
       <c r="F306" t="s">
         <v>57</v>
       </c>
       <c r="L306" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="307" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="307">
       <c r="A307" t="s">
-        <v>862</v>
+        <v>851</v>
       </c>
       <c r="B307" t="s">
         <v>624</v>
       </c>
       <c r="C307" t="s">
-        <v>657</v>
+        <v>634</v>
       </c>
       <c r="D307" t="s">
-        <v>649</v>
+        <v>626</v>
       </c>
       <c r="E307" t="s">
-        <v>658</v>
+        <v>635</v>
       </c>
       <c r="F307" t="s">
         <v>57</v>
       </c>
       <c r="L307" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="308" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="308">
       <c r="A308" t="s">
-        <v>863</v>
+        <v>852</v>
       </c>
       <c r="B308" t="s">
         <v>624</v>
       </c>
       <c r="C308" t="s">
-        <v>659</v>
+        <v>636</v>
       </c>
       <c r="D308" t="s">
-        <v>649</v>
+        <v>626</v>
       </c>
       <c r="E308" t="s">
-        <v>660</v>
+        <v>637</v>
       </c>
       <c r="F308" t="s">
         <v>57</v>
       </c>
       <c r="L308" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="309" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="309">
       <c r="A309" t="s">
-        <v>864</v>
+        <v>853</v>
       </c>
       <c r="B309" t="s">
         <v>624</v>
       </c>
       <c r="C309" t="s">
-        <v>661</v>
+        <v>638</v>
       </c>
       <c r="D309" t="s">
-        <v>649</v>
+        <v>626</v>
       </c>
       <c r="E309" t="s">
-        <v>662</v>
+        <v>639</v>
       </c>
       <c r="F309" t="s">
         <v>57</v>
       </c>
       <c r="L309" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="310" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="310">
       <c r="A310" t="s">
-        <v>865</v>
+        <v>854</v>
       </c>
       <c r="B310" t="s">
         <v>624</v>
       </c>
       <c r="C310" t="s">
-        <v>663</v>
+        <v>640</v>
       </c>
       <c r="D310" t="s">
-        <v>649</v>
+        <v>626</v>
       </c>
       <c r="E310" t="s">
-        <v>664</v>
+        <v>641</v>
       </c>
       <c r="F310" t="s">
         <v>57</v>
@@ -10835,21 +10935,21 @@
         <v>29</v>
       </c>
     </row>
-    <row r="311" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="311">
       <c r="A311" t="s">
-        <v>866</v>
+        <v>855</v>
       </c>
       <c r="B311" t="s">
         <v>624</v>
       </c>
       <c r="C311" t="s">
-        <v>665</v>
+        <v>642</v>
       </c>
       <c r="D311" t="s">
-        <v>649</v>
+        <v>626</v>
       </c>
       <c r="E311" t="s">
-        <v>666</v>
+        <v>643</v>
       </c>
       <c r="F311" t="s">
         <v>57</v>
@@ -10858,44 +10958,44 @@
         <v>17</v>
       </c>
     </row>
-    <row r="312" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="312">
       <c r="A312" t="s">
-        <v>867</v>
+        <v>856</v>
       </c>
       <c r="B312" t="s">
         <v>624</v>
       </c>
       <c r="C312" t="s">
-        <v>667</v>
+        <v>644</v>
       </c>
       <c r="D312" t="s">
-        <v>649</v>
+        <v>626</v>
       </c>
       <c r="E312" t="s">
-        <v>668</v>
+        <v>645</v>
       </c>
       <c r="F312" t="s">
         <v>57</v>
       </c>
       <c r="L312" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="313" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="313">
       <c r="A313" t="s">
-        <v>868</v>
+        <v>857</v>
       </c>
       <c r="B313" t="s">
         <v>624</v>
       </c>
       <c r="C313" t="s">
-        <v>669</v>
+        <v>646</v>
       </c>
       <c r="D313" t="s">
-        <v>670</v>
+        <v>626</v>
       </c>
       <c r="E313" t="s">
-        <v>671</v>
+        <v>647</v>
       </c>
       <c r="F313" t="s">
         <v>57</v>
@@ -10904,68 +11004,321 @@
         <v>45</v>
       </c>
     </row>
-    <row r="314" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="314">
+      <c r="A314" t="s">
+        <v>858</v>
+      </c>
+      <c r="B314" t="s">
+        <v>624</v>
+      </c>
+      <c r="C314" t="s">
+        <v>648</v>
+      </c>
       <c r="D314" t="s">
+        <v>649</v>
+      </c>
+      <c r="E314" t="s">
+        <v>650</v>
+      </c>
+      <c r="F314" t="s">
+        <v>57</v>
+      </c>
+      <c r="L314" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="s">
+        <v>859</v>
+      </c>
+      <c r="B315" t="s">
+        <v>624</v>
+      </c>
+      <c r="C315" t="s">
+        <v>651</v>
+      </c>
+      <c r="D315" t="s">
+        <v>649</v>
+      </c>
+      <c r="E315" t="s">
+        <v>652</v>
+      </c>
+      <c r="F315" t="s">
+        <v>57</v>
+      </c>
+      <c r="L315" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="s">
+        <v>860</v>
+      </c>
+      <c r="B316" t="s">
+        <v>624</v>
+      </c>
+      <c r="C316" t="s">
+        <v>653</v>
+      </c>
+      <c r="D316" t="s">
+        <v>649</v>
+      </c>
+      <c r="E316" t="s">
+        <v>654</v>
+      </c>
+      <c r="F316" t="s">
+        <v>57</v>
+      </c>
+      <c r="L316" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="s">
+        <v>861</v>
+      </c>
+      <c r="B317" t="s">
+        <v>624</v>
+      </c>
+      <c r="C317" t="s">
+        <v>655</v>
+      </c>
+      <c r="D317" t="s">
+        <v>649</v>
+      </c>
+      <c r="E317" t="s">
+        <v>656</v>
+      </c>
+      <c r="F317" t="s">
+        <v>57</v>
+      </c>
+      <c r="L317" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="s">
+        <v>862</v>
+      </c>
+      <c r="B318" t="s">
+        <v>624</v>
+      </c>
+      <c r="C318" t="s">
+        <v>657</v>
+      </c>
+      <c r="D318" t="s">
+        <v>649</v>
+      </c>
+      <c r="E318" t="s">
+        <v>658</v>
+      </c>
+      <c r="F318" t="s">
+        <v>57</v>
+      </c>
+      <c r="L318" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="s">
+        <v>863</v>
+      </c>
+      <c r="B319" t="s">
+        <v>624</v>
+      </c>
+      <c r="C319" t="s">
+        <v>659</v>
+      </c>
+      <c r="D319" t="s">
+        <v>649</v>
+      </c>
+      <c r="E319" t="s">
+        <v>660</v>
+      </c>
+      <c r="F319" t="s">
+        <v>57</v>
+      </c>
+      <c r="L319" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="s">
+        <v>864</v>
+      </c>
+      <c r="B320" t="s">
+        <v>624</v>
+      </c>
+      <c r="C320" t="s">
+        <v>661</v>
+      </c>
+      <c r="D320" t="s">
+        <v>649</v>
+      </c>
+      <c r="E320" t="s">
+        <v>662</v>
+      </c>
+      <c r="F320" t="s">
+        <v>57</v>
+      </c>
+      <c r="L320" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="s">
+        <v>865</v>
+      </c>
+      <c r="B321" t="s">
+        <v>624</v>
+      </c>
+      <c r="C321" t="s">
+        <v>663</v>
+      </c>
+      <c r="D321" t="s">
+        <v>649</v>
+      </c>
+      <c r="E321" t="s">
+        <v>664</v>
+      </c>
+      <c r="F321" t="s">
+        <v>57</v>
+      </c>
+      <c r="L321" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="s">
+        <v>866</v>
+      </c>
+      <c r="B322" t="s">
+        <v>624</v>
+      </c>
+      <c r="C322" t="s">
+        <v>665</v>
+      </c>
+      <c r="D322" t="s">
+        <v>649</v>
+      </c>
+      <c r="E322" t="s">
+        <v>666</v>
+      </c>
+      <c r="F322" t="s">
+        <v>57</v>
+      </c>
+      <c r="L322" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="s">
+        <v>867</v>
+      </c>
+      <c r="B323" t="s">
+        <v>624</v>
+      </c>
+      <c r="C323" t="s">
+        <v>667</v>
+      </c>
+      <c r="D323" t="s">
+        <v>649</v>
+      </c>
+      <c r="E323" t="s">
+        <v>668</v>
+      </c>
+      <c r="F323" t="s">
+        <v>57</v>
+      </c>
+      <c r="L323" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="s">
+        <v>868</v>
+      </c>
+      <c r="B324" t="s">
+        <v>624</v>
+      </c>
+      <c r="C324" t="s">
+        <v>669</v>
+      </c>
+      <c r="D324" t="s">
+        <v>670</v>
+      </c>
+      <c r="E324" t="s">
+        <v>671</v>
+      </c>
+      <c r="F324" t="s">
+        <v>57</v>
+      </c>
+      <c r="L324" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="D325" t="s">
         <v>711</v>
       </c>
     </row>
-    <row r="315" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="D315" t="s">
+    <row r="326">
+      <c r="D326" t="s">
         <v>712</v>
       </c>
     </row>
-    <row r="316" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="D316" t="s">
+    <row r="327">
+      <c r="D327" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="317" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="D317" t="s">
+    <row r="328">
+      <c r="D328" t="s">
         <v>714</v>
       </c>
     </row>
-    <row r="318" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="D318" t="s">
+    <row r="329">
+      <c r="D329" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="319" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="D319" t="s">
+    <row r="330">
+      <c r="D330" t="s">
         <v>717</v>
       </c>
     </row>
-    <row r="320" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="D320" t="s">
+    <row r="331">
+      <c r="D331" t="s">
         <v>718</v>
       </c>
     </row>
-    <row r="321" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="D321" t="s">
+    <row r="332">
+      <c r="D332" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="322" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="D322" t="s">
+    <row r="333">
+      <c r="D333" t="s">
         <v>720</v>
       </c>
     </row>
-    <row r="323" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="D323" t="s">
+    <row r="334">
+      <c r="D334" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="324" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="D324" t="s">
+    <row r="335">
+      <c r="D335" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="325" spans="4:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="D325" t="s">
+    <row r="336">
+      <c r="D336" t="s">
         <v>723</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>